--- a/5/9/Índice de stress local 2016 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2016 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3069</v>
+        <v>0.3101</v>
       </c>
       <c r="C2">
-        <v>0.0728</v>
+        <v>0.075</v>
       </c>
       <c r="D2">
-        <v>0.234</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3119</v>
+        <v>0.3144</v>
       </c>
       <c r="C3">
-        <v>0.0742</v>
+        <v>0.0764</v>
       </c>
       <c r="D3">
-        <v>0.2377</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3175</v>
+        <v>0.3193</v>
       </c>
       <c r="C4">
-        <v>0.0755</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="D4">
-        <v>0.242</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3234</v>
+        <v>0.3247</v>
       </c>
       <c r="C5">
-        <v>0.077</v>
+        <v>0.0794</v>
       </c>
       <c r="D5">
-        <v>0.2463</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3298</v>
+        <v>0.3309</v>
       </c>
       <c r="C6">
-        <v>0.07920000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="D6">
-        <v>0.2506</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3368</v>
+        <v>0.3379</v>
       </c>
       <c r="C7">
-        <v>0.082</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="D7">
-        <v>0.2549</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3434</v>
+        <v>0.3444</v>
       </c>
       <c r="C8">
-        <v>0.0844</v>
+        <v>0.0872</v>
       </c>
       <c r="D8">
-        <v>0.259</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3486</v>
+        <v>0.3497</v>
       </c>
       <c r="C9">
-        <v>0.0861</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="D9">
-        <v>0.2625</v>
+        <v>0.2608</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3532</v>
+        <v>0.3543</v>
       </c>
       <c r="C10">
-        <v>0.08699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="D10">
-        <v>0.2662</v>
+        <v>0.2643</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3583</v>
+        <v>0.3594</v>
       </c>
       <c r="C11">
-        <v>0.0885</v>
+        <v>0.0915</v>
       </c>
       <c r="D11">
-        <v>0.2699</v>
+        <v>0.2679</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3644</v>
+        <v>0.3654</v>
       </c>
       <c r="C12">
-        <v>0.0906</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D12">
-        <v>0.2738</v>
+        <v>0.2717</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3698</v>
+        <v>0.3706</v>
       </c>
       <c r="C13">
-        <v>0.092</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="D13">
-        <v>0.2778</v>
+        <v>0.2754</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3758</v>
+        <v>0.376</v>
       </c>
       <c r="C14">
-        <v>0.0935</v>
+        <v>0.0968</v>
       </c>
       <c r="D14">
-        <v>0.2823</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3795</v>
+        <v>0.3791</v>
       </c>
       <c r="C15">
-        <v>0.09320000000000001</v>
+        <v>0.0965</v>
       </c>
       <c r="D15">
-        <v>0.2862</v>
+        <v>0.2825</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3831</v>
+        <v>0.3819</v>
       </c>
       <c r="C16">
-        <v>0.09320000000000001</v>
+        <v>0.0964</v>
       </c>
       <c r="D16">
-        <v>0.2899</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3873</v>
+        <v>0.3851</v>
       </c>
       <c r="C17">
-        <v>0.0934</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="D17">
-        <v>0.2939</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3909</v>
+        <v>0.3875</v>
       </c>
       <c r="C18">
-        <v>0.09279999999999999</v>
+        <v>0.0961</v>
       </c>
       <c r="D18">
-        <v>0.298</v>
+        <v>0.2914</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3936</v>
+        <v>0.3891</v>
       </c>
       <c r="C19">
-        <v>0.0922</v>
+        <v>0.0954</v>
       </c>
       <c r="D19">
-        <v>0.3014</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3962</v>
+        <v>0.3902</v>
       </c>
       <c r="C20">
-        <v>0.09130000000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="D20">
-        <v>0.3049</v>
+        <v>0.2957</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.4006</v>
+        <v>0.3929</v>
       </c>
       <c r="C21">
-        <v>0.0912</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D21">
-        <v>0.3094</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.4042</v>
+        <v>0.3948</v>
       </c>
       <c r="C22">
-        <v>0.09089999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="D22">
-        <v>0.3133</v>
+        <v>0.3007</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.4064</v>
+        <v>0.3952</v>
       </c>
       <c r="C23">
-        <v>0.08989999999999999</v>
+        <v>0.093</v>
       </c>
       <c r="D23">
-        <v>0.3165</v>
+        <v>0.3022</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.4083</v>
+        <v>0.3952</v>
       </c>
       <c r="C24">
-        <v>0.089</v>
+        <v>0.0919</v>
       </c>
       <c r="D24">
-        <v>0.3194</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.4097</v>
+        <v>0.3945</v>
       </c>
       <c r="C25">
-        <v>0.0877</v>
+        <v>0.0906</v>
       </c>
       <c r="D25">
-        <v>0.322</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.4113</v>
+        <v>0.3939</v>
       </c>
       <c r="C26">
-        <v>0.0868</v>
+        <v>0.0896</v>
       </c>
       <c r="D26">
-        <v>0.3244</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4122</v>
+        <v>0.3925</v>
       </c>
       <c r="C27">
-        <v>0.08550000000000001</v>
+        <v>0.0882</v>
       </c>
       <c r="D27">
-        <v>0.3267</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.4136</v>
+        <v>0.3916</v>
       </c>
       <c r="C28">
-        <v>0.0849</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D28">
-        <v>0.3287</v>
+        <v>0.3041</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.4157</v>
+        <v>0.3913</v>
       </c>
       <c r="C29">
-        <v>0.08459999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="D29">
-        <v>0.3311</v>
+        <v>0.3042</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.4187</v>
+        <v>0.3919</v>
       </c>
       <c r="C30">
-        <v>0.0852</v>
+        <v>0.0877</v>
       </c>
       <c r="D30">
-        <v>0.3335</v>
+        <v>0.3042</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.4204</v>
+        <v>0.391</v>
       </c>
       <c r="C31">
-        <v>0.0847</v>
+        <v>0.0871</v>
       </c>
       <c r="D31">
-        <v>0.3357</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.4216</v>
+        <v>0.3899</v>
       </c>
       <c r="C32">
-        <v>0.08409999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="D32">
-        <v>0.3375</v>
+        <v>0.3035</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.4225</v>
+        <v>0.3886</v>
       </c>
       <c r="C33">
-        <v>0.0837</v>
+        <v>0.0859</v>
       </c>
       <c r="D33">
-        <v>0.3388</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4227</v>
+        <v>0.3869</v>
       </c>
       <c r="C34">
-        <v>0.08359999999999999</v>
+        <v>0.0858</v>
       </c>
       <c r="D34">
-        <v>0.3391</v>
+        <v>0.3011</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.4235</v>
+        <v>0.3859</v>
       </c>
       <c r="C35">
-        <v>0.08409999999999999</v>
+        <v>0.0862</v>
       </c>
       <c r="D35">
-        <v>0.3394</v>
+        <v>0.2997</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.4243</v>
+        <v>0.3852</v>
       </c>
       <c r="C36">
-        <v>0.08450000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="D36">
-        <v>0.3398</v>
+        <v>0.2985</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.4244</v>
+        <v>0.3839</v>
       </c>
       <c r="C37">
-        <v>0.0848</v>
+        <v>0.0868</v>
       </c>
       <c r="D37">
-        <v>0.3396</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.4258</v>
+        <v>0.3842</v>
       </c>
       <c r="C38">
-        <v>0.0861</v>
+        <v>0.0882</v>
       </c>
       <c r="D38">
-        <v>0.3398</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.4279</v>
+        <v>0.3852</v>
       </c>
       <c r="C39">
-        <v>0.0876</v>
+        <v>0.0897</v>
       </c>
       <c r="D39">
-        <v>0.3404</v>
+        <v>0.2955</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.4298</v>
+        <v>0.3862</v>
       </c>
       <c r="C40">
-        <v>0.0891</v>
+        <v>0.0912</v>
       </c>
       <c r="D40">
-        <v>0.3407</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.4303</v>
+        <v>0.3863</v>
       </c>
       <c r="C41">
-        <v>0.09080000000000001</v>
+        <v>0.0929</v>
       </c>
       <c r="D41">
-        <v>0.3395</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.4311</v>
+        <v>0.3871</v>
       </c>
       <c r="C42">
-        <v>0.09279999999999999</v>
+        <v>0.095</v>
       </c>
       <c r="D42">
-        <v>0.3383</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.4325</v>
+        <v>0.3885</v>
       </c>
       <c r="C43">
-        <v>0.095</v>
+        <v>0.0974</v>
       </c>
       <c r="D43">
-        <v>0.3375</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.4327</v>
+        <v>0.3889</v>
       </c>
       <c r="C44">
-        <v>0.0963</v>
+        <v>0.0987</v>
       </c>
       <c r="D44">
-        <v>0.3364</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.4331</v>
+        <v>0.3896</v>
       </c>
       <c r="C45">
-        <v>0.0978</v>
+        <v>0.1002</v>
       </c>
       <c r="D45">
-        <v>0.3353</v>
+        <v>0.2894</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.4329</v>
+        <v>0.3898</v>
       </c>
       <c r="C46">
-        <v>0.09859999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="D46">
-        <v>0.3343</v>
+        <v>0.2888</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.4325</v>
+        <v>0.3899</v>
       </c>
       <c r="C47">
-        <v>0.0992</v>
+        <v>0.1017</v>
       </c>
       <c r="D47">
-        <v>0.3333</v>
+        <v>0.2882</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4314</v>
+        <v>0.3892</v>
       </c>
       <c r="C48">
-        <v>0.099</v>
+        <v>0.1014</v>
       </c>
       <c r="D48">
-        <v>0.3325</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4301</v>
+        <v>0.3884</v>
       </c>
       <c r="C49">
-        <v>0.0989</v>
+        <v>0.1014</v>
       </c>
       <c r="D49">
-        <v>0.3312</v>
+        <v>0.2871</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4283</v>
+        <v>0.3872</v>
       </c>
       <c r="C50">
-        <v>0.0984</v>
+        <v>0.1009</v>
       </c>
       <c r="D50">
-        <v>0.3298</v>
+        <v>0.2863</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4281</v>
+        <v>0.3877</v>
       </c>
       <c r="C51">
-        <v>0.09959999999999999</v>
+        <v>0.1021</v>
       </c>
       <c r="D51">
-        <v>0.3285</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4269</v>
+        <v>0.3872</v>
       </c>
       <c r="C52">
-        <v>0.0999</v>
+        <v>0.1024</v>
       </c>
       <c r="D52">
-        <v>0.327</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4266</v>
+        <v>0.3874</v>
       </c>
       <c r="C53">
-        <v>0.1003</v>
+        <v>0.1029</v>
       </c>
       <c r="D53">
-        <v>0.3262</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4264</v>
+        <v>0.3874</v>
       </c>
       <c r="C54">
-        <v>0.1004</v>
+        <v>0.1029</v>
       </c>
       <c r="D54">
-        <v>0.326</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4266</v>
+        <v>0.3877</v>
       </c>
       <c r="C55">
-        <v>0.1004</v>
+        <v>0.103</v>
       </c>
       <c r="D55">
-        <v>0.3262</v>
+        <v>0.2847</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4285</v>
+        <v>0.3898</v>
       </c>
       <c r="C56">
-        <v>0.1022</v>
+        <v>0.1048</v>
       </c>
       <c r="D56">
-        <v>0.3263</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.4308</v>
+        <v>0.3921</v>
       </c>
       <c r="C57">
-        <v>0.1041</v>
+        <v>0.1068</v>
       </c>
       <c r="D57">
-        <v>0.3267</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4317</v>
+        <v>0.3929</v>
       </c>
       <c r="C58">
-        <v>0.1049</v>
+        <v>0.1076</v>
       </c>
       <c r="D58">
-        <v>0.3268</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.432</v>
+        <v>0.393</v>
       </c>
       <c r="C59">
-        <v>0.1055</v>
+        <v>0.1083</v>
       </c>
       <c r="D59">
-        <v>0.3264</v>
+        <v>0.2847</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4317</v>
+        <v>0.3924</v>
       </c>
       <c r="C60">
-        <v>0.1059</v>
+        <v>0.1087</v>
       </c>
       <c r="D60">
-        <v>0.3258</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.4307</v>
+        <v>0.3909</v>
       </c>
       <c r="C61">
-        <v>0.1058</v>
+        <v>0.1086</v>
       </c>
       <c r="D61">
-        <v>0.3248</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.4296</v>
+        <v>0.3892</v>
       </c>
       <c r="C62">
-        <v>0.1055</v>
+        <v>0.1082</v>
       </c>
       <c r="D62">
-        <v>0.324</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.4283</v>
+        <v>0.3871</v>
       </c>
       <c r="C63">
-        <v>0.1049</v>
+        <v>0.1075</v>
       </c>
       <c r="D63">
-        <v>0.3233</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.4279</v>
+        <v>0.3859</v>
       </c>
       <c r="C64">
-        <v>0.1051</v>
+        <v>0.1077</v>
       </c>
       <c r="D64">
-        <v>0.3228</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.4272</v>
+        <v>0.3842</v>
       </c>
       <c r="C65">
-        <v>0.1051</v>
+        <v>0.1076</v>
       </c>
       <c r="D65">
-        <v>0.3221</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4257</v>
+        <v>0.3817</v>
       </c>
       <c r="C66">
-        <v>0.1045</v>
+        <v>0.1069</v>
       </c>
       <c r="D66">
-        <v>0.3213</v>
+        <v>0.2748</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4237</v>
+        <v>0.3787</v>
       </c>
       <c r="C67">
-        <v>0.1034</v>
+        <v>0.1057</v>
       </c>
       <c r="D67">
-        <v>0.3204</v>
+        <v>0.2729</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4215</v>
+        <v>0.3755</v>
       </c>
       <c r="C68">
-        <v>0.1023</v>
+        <v>0.1045</v>
       </c>
       <c r="D68">
-        <v>0.3193</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4194</v>
+        <v>0.3723</v>
       </c>
       <c r="C69">
-        <v>0.1007</v>
+        <v>0.1029</v>
       </c>
       <c r="D69">
-        <v>0.3186</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4178</v>
+        <v>0.3698</v>
       </c>
       <c r="C70">
-        <v>0.09950000000000001</v>
+        <v>0.1016</v>
       </c>
       <c r="D70">
-        <v>0.3183</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4157</v>
+        <v>0.3665</v>
       </c>
       <c r="C71">
-        <v>0.0974</v>
+        <v>0.0993</v>
       </c>
       <c r="D71">
-        <v>0.3184</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4148</v>
+        <v>0.3644</v>
       </c>
       <c r="C72">
-        <v>0.0959</v>
+        <v>0.0978</v>
       </c>
       <c r="D72">
-        <v>0.3189</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4142</v>
+        <v>0.3629</v>
       </c>
       <c r="C73">
-        <v>0.095</v>
+        <v>0.0969</v>
       </c>
       <c r="D73">
-        <v>0.3192</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4135</v>
+        <v>0.3612</v>
       </c>
       <c r="C74">
-        <v>0.094</v>
+        <v>0.0958</v>
       </c>
       <c r="D74">
-        <v>0.3195</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4122</v>
+        <v>0.3591</v>
       </c>
       <c r="C75">
-        <v>0.0929</v>
+        <v>0.0946</v>
       </c>
       <c r="D75">
-        <v>0.3193</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.4093</v>
+        <v>0.3552</v>
       </c>
       <c r="C76">
-        <v>0.09</v>
+        <v>0.0916</v>
       </c>
       <c r="D76">
-        <v>0.3193</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.406</v>
+        <v>0.351</v>
       </c>
       <c r="C77">
-        <v>0.0871</v>
+        <v>0.0885</v>
       </c>
       <c r="D77">
-        <v>0.3189</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.4026</v>
+        <v>0.347</v>
       </c>
       <c r="C78">
-        <v>0.08450000000000001</v>
+        <v>0.0858</v>
       </c>
       <c r="D78">
-        <v>0.3181</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3992</v>
+        <v>0.3429</v>
       </c>
       <c r="C79">
-        <v>0.08160000000000001</v>
+        <v>0.0827</v>
       </c>
       <c r="D79">
-        <v>0.3176</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3963</v>
+        <v>0.3394</v>
       </c>
       <c r="C80">
-        <v>0.0788</v>
+        <v>0.0798</v>
       </c>
       <c r="D80">
-        <v>0.3175</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3938</v>
+        <v>0.3363</v>
       </c>
       <c r="C81">
-        <v>0.07580000000000001</v>
+        <v>0.0767</v>
       </c>
       <c r="D81">
-        <v>0.318</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3912</v>
+        <v>0.3331</v>
       </c>
       <c r="C82">
-        <v>0.0728</v>
+        <v>0.0737</v>
       </c>
       <c r="D82">
-        <v>0.3184</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3889</v>
+        <v>0.3303</v>
       </c>
       <c r="C83">
-        <v>0.0703</v>
+        <v>0.0711</v>
       </c>
       <c r="D83">
-        <v>0.3186</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3861</v>
+        <v>0.3269</v>
       </c>
       <c r="C84">
-        <v>0.0674</v>
+        <v>0.068</v>
       </c>
       <c r="D84">
-        <v>0.3187</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3844</v>
+        <v>0.3247</v>
       </c>
       <c r="C85">
-        <v>0.0653</v>
+        <v>0.0659</v>
       </c>
       <c r="D85">
-        <v>0.3191</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.383</v>
+        <v>0.3225</v>
       </c>
       <c r="C86">
-        <v>0.0634</v>
+        <v>0.0639</v>
       </c>
       <c r="D86">
-        <v>0.3197</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3822</v>
+        <v>0.3207</v>
       </c>
       <c r="C87">
-        <v>0.0618</v>
+        <v>0.0623</v>
       </c>
       <c r="D87">
-        <v>0.3204</v>
+        <v>0.2583</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3818</v>
+        <v>0.3188</v>
       </c>
       <c r="C88">
-        <v>0.0606</v>
+        <v>0.061</v>
       </c>
       <c r="D88">
-        <v>0.3213</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3817</v>
+        <v>0.3167</v>
       </c>
       <c r="C89">
-        <v>0.0599</v>
+        <v>0.0602</v>
       </c>
       <c r="D89">
-        <v>0.3218</v>
+        <v>0.2565</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3806</v>
+        <v>0.3131</v>
       </c>
       <c r="C90">
-        <v>0.0587</v>
+        <v>0.0589</v>
       </c>
       <c r="D90">
-        <v>0.3219</v>
+        <v>0.2542</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3797</v>
+        <v>0.3093</v>
       </c>
       <c r="C91">
-        <v>0.0578</v>
+        <v>0.058</v>
       </c>
       <c r="D91">
-        <v>0.3218</v>
+        <v>0.2513</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3789</v>
+        <v>0.3053</v>
       </c>
       <c r="C92">
         <v>0.0574</v>
       </c>
       <c r="D92">
-        <v>0.3215</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.3774</v>
+        <v>0.3002</v>
       </c>
       <c r="C93">
-        <v>0.0565</v>
+        <v>0.0563</v>
       </c>
       <c r="D93">
-        <v>0.321</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.3764</v>
+        <v>0.2956</v>
       </c>
       <c r="C94">
-        <v>0.0563</v>
+        <v>0.0559</v>
       </c>
       <c r="D94">
-        <v>0.3202</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.3756</v>
+        <v>0.2911</v>
       </c>
       <c r="C95">
-        <v>0.0561</v>
+        <v>0.0556</v>
       </c>
       <c r="D95">
-        <v>0.3195</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.3752</v>
+        <v>0.2868</v>
       </c>
       <c r="C96">
-        <v>0.0562</v>
+        <v>0.0555</v>
       </c>
       <c r="D96">
-        <v>0.319</v>
+        <v>0.2313</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.3745</v>
+        <v>0.2821</v>
       </c>
       <c r="C97">
-        <v>0.056</v>
+        <v>0.0551</v>
       </c>
       <c r="D97">
-        <v>0.3185</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.3745</v>
+        <v>0.2778</v>
       </c>
       <c r="C98">
-        <v>0.0562</v>
+        <v>0.0552</v>
       </c>
       <c r="D98">
-        <v>0.3183</v>
+        <v>0.2226</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.3745</v>
+        <v>0.2734</v>
       </c>
       <c r="C99">
-        <v>0.0569</v>
+        <v>0.0556</v>
       </c>
       <c r="D99">
-        <v>0.3176</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3749</v>
+        <v>0.2692</v>
       </c>
       <c r="C100">
-        <v>0.0581</v>
+        <v>0.0566</v>
       </c>
       <c r="D100">
-        <v>0.3168</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3752</v>
+        <v>0.2649</v>
       </c>
       <c r="C101">
-        <v>0.0596</v>
+        <v>0.0579</v>
       </c>
       <c r="D101">
-        <v>0.3156</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3758</v>
+        <v>0.2606</v>
       </c>
       <c r="C102">
-        <v>0.0611</v>
+        <v>0.0592</v>
       </c>
       <c r="D102">
-        <v>0.3147</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3755</v>
+        <v>0.2554</v>
       </c>
       <c r="C103">
-        <v>0.0619</v>
+        <v>0.0598</v>
       </c>
       <c r="D103">
-        <v>0.3136</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3755</v>
+        <v>0.2507</v>
       </c>
       <c r="C104">
-        <v>0.0631</v>
+        <v>0.0607</v>
       </c>
       <c r="D104">
-        <v>0.3124</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3751</v>
+        <v>0.2458</v>
       </c>
       <c r="C105">
-        <v>0.0638</v>
+        <v>0.0612</v>
       </c>
       <c r="D105">
-        <v>0.3113</v>
+        <v>0.1846</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3747</v>
+        <v>0.2413</v>
       </c>
       <c r="C106">
-        <v>0.0645</v>
+        <v>0.0617</v>
       </c>
       <c r="D106">
-        <v>0.3102</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.375</v>
+        <v>0.2381</v>
       </c>
       <c r="C107">
-        <v>0.06569999999999999</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="D107">
-        <v>0.3093</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3753</v>
+        <v>0.2356</v>
       </c>
       <c r="C108">
-        <v>0.0669</v>
+        <v>0.0638</v>
       </c>
       <c r="D108">
-        <v>0.3083</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3755</v>
+        <v>0.2339</v>
       </c>
       <c r="C109">
-        <v>0.068</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D109">
-        <v>0.3075</v>
+        <v>0.1692</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3763</v>
+        <v>0.2339</v>
       </c>
       <c r="C110">
-        <v>0.0693</v>
+        <v>0.066</v>
       </c>
       <c r="D110">
-        <v>0.3071</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3773</v>
+        <v>0.2348</v>
       </c>
       <c r="C111">
-        <v>0.0706</v>
+        <v>0.0673</v>
       </c>
       <c r="D111">
-        <v>0.3067</v>
+        <v>0.1675</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3774</v>
+        <v>0.2352</v>
       </c>
       <c r="C112">
-        <v>0.07099999999999999</v>
+        <v>0.0677</v>
       </c>
       <c r="D112">
-        <v>0.3064</v>
+        <v>0.1675</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3775</v>
+        <v>0.2359</v>
       </c>
       <c r="C113">
-        <v>0.0713</v>
+        <v>0.068</v>
       </c>
       <c r="D113">
-        <v>0.3063</v>
+        <v>0.1679</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3776</v>
+        <v>0.2364</v>
       </c>
       <c r="C114">
-        <v>0.0713</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="D114">
-        <v>0.3062</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3785</v>
+        <v>0.2375</v>
       </c>
       <c r="C115">
-        <v>0.07190000000000001</v>
+        <v>0.0687</v>
       </c>
       <c r="D115">
-        <v>0.3066</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3789</v>
+        <v>0.2378</v>
       </c>
       <c r="C116">
-        <v>0.0722</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D116">
-        <v>0.3067</v>
+        <v>0.1688</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3795</v>
+        <v>0.2382</v>
       </c>
       <c r="C117">
-        <v>0.0727</v>
+        <v>0.0694</v>
       </c>
       <c r="D117">
-        <v>0.3069</v>
+        <v>0.1687</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3801</v>
+        <v>0.2384</v>
       </c>
       <c r="C118">
-        <v>0.0731</v>
+        <v>0.0699</v>
       </c>
       <c r="D118">
-        <v>0.307</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3806</v>
+        <v>0.2385</v>
       </c>
       <c r="C119">
-        <v>0.0732</v>
+        <v>0.0699</v>
       </c>
       <c r="D119">
-        <v>0.3073</v>
+        <v>0.1685</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3803</v>
+        <v>0.238</v>
       </c>
       <c r="C120">
-        <v>0.07290000000000001</v>
+        <v>0.0696</v>
       </c>
       <c r="D120">
-        <v>0.3074</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3802</v>
+        <v>0.2375</v>
       </c>
       <c r="C121">
-        <v>0.0727</v>
+        <v>0.0694</v>
       </c>
       <c r="D121">
-        <v>0.3075</v>
+        <v>0.1681</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3805</v>
+        <v>0.2373</v>
       </c>
       <c r="C122">
-        <v>0.07290000000000001</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="D122">
-        <v>0.3076</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3812</v>
+        <v>0.2372</v>
       </c>
       <c r="C123">
-        <v>0.0733</v>
+        <v>0.0699</v>
       </c>
       <c r="D123">
-        <v>0.3079</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3813</v>
+        <v>0.2361</v>
       </c>
       <c r="C124">
-        <v>0.0733</v>
+        <v>0.0698</v>
       </c>
       <c r="D124">
-        <v>0.308</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3814</v>
+        <v>0.2348</v>
       </c>
       <c r="C125">
-        <v>0.0733</v>
+        <v>0.0697</v>
       </c>
       <c r="D125">
-        <v>0.3082</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.383</v>
+        <v>0.2348</v>
       </c>
       <c r="C126">
-        <v>0.0742</v>
+        <v>0.0706</v>
       </c>
       <c r="D126">
-        <v>0.3087</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3846</v>
+        <v>0.2346</v>
       </c>
       <c r="C127">
-        <v>0.07539999999999999</v>
+        <v>0.0717</v>
       </c>
       <c r="D127">
-        <v>0.3092</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3863</v>
+        <v>0.234</v>
       </c>
       <c r="C128">
-        <v>0.07630000000000001</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D128">
-        <v>0.31</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3876</v>
+        <v>0.2327</v>
       </c>
       <c r="C129">
-        <v>0.077</v>
+        <v>0.073</v>
       </c>
       <c r="D129">
-        <v>0.3106</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.388</v>
+        <v>0.2301</v>
       </c>
       <c r="C130">
-        <v>0.0774</v>
+        <v>0.0731</v>
       </c>
       <c r="D130">
-        <v>0.3107</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3877</v>
+        <v>0.2264</v>
       </c>
       <c r="C131">
-        <v>0.0772</v>
+        <v>0.0728</v>
       </c>
       <c r="D131">
-        <v>0.3104</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.387</v>
+        <v>0.2225</v>
       </c>
       <c r="C132">
-        <v>0.0772</v>
+        <v>0.0725</v>
       </c>
       <c r="D132">
-        <v>0.3098</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3862</v>
+        <v>0.2185</v>
       </c>
       <c r="C133">
-        <v>0.0775</v>
+        <v>0.0725</v>
       </c>
       <c r="D133">
-        <v>0.3086</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3847</v>
+        <v>0.2143</v>
       </c>
       <c r="C134">
-        <v>0.07770000000000001</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D134">
-        <v>0.3071</v>
+        <v>0.1419</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3824</v>
+        <v>0.2098</v>
       </c>
       <c r="C135">
-        <v>0.0776</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D135">
-        <v>0.3048</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.38</v>
+        <v>0.2056</v>
       </c>
       <c r="C136">
-        <v>0.0775</v>
+        <v>0.0717</v>
       </c>
       <c r="D136">
-        <v>0.3026</v>
+        <v>0.1339</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3772</v>
+        <v>0.2013</v>
       </c>
       <c r="C137">
-        <v>0.07729999999999999</v>
+        <v>0.0713</v>
       </c>
       <c r="D137">
-        <v>0.2998</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3737</v>
+        <v>0.1968</v>
       </c>
       <c r="C138">
-        <v>0.07679999999999999</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D138">
-        <v>0.297</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3702</v>
+        <v>0.1925</v>
       </c>
       <c r="C139">
-        <v>0.0765</v>
+        <v>0.0699</v>
       </c>
       <c r="D139">
-        <v>0.2937</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3659</v>
+        <v>0.1877</v>
       </c>
       <c r="C140">
-        <v>0.0759</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D140">
-        <v>0.29</v>
+        <v>0.1187</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3612</v>
+        <v>0.1828</v>
       </c>
       <c r="C141">
-        <v>0.0752</v>
+        <v>0.068</v>
       </c>
       <c r="D141">
-        <v>0.286</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3555</v>
+        <v>0.1774</v>
       </c>
       <c r="C142">
-        <v>0.074</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D142">
-        <v>0.2815</v>
+        <v>0.1109</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3498</v>
+        <v>0.1727</v>
       </c>
       <c r="C143">
-        <v>0.0732</v>
+        <v>0.0655</v>
       </c>
       <c r="D143">
-        <v>0.2766</v>
+        <v>0.1072</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3441</v>
+        <v>0.1686</v>
       </c>
       <c r="C144">
-        <v>0.0726</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D144">
-        <v>0.2715</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3374</v>
+        <v>0.1638</v>
       </c>
       <c r="C145">
-        <v>0.07140000000000001</v>
+        <v>0.0633</v>
       </c>
       <c r="D145">
-        <v>0.266</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3301</v>
+        <v>0.1587</v>
       </c>
       <c r="C146">
-        <v>0.0698</v>
+        <v>0.0614</v>
       </c>
       <c r="D146">
-        <v>0.2603</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3223</v>
+        <v>0.1537</v>
       </c>
       <c r="C147">
-        <v>0.0678</v>
+        <v>0.0593</v>
       </c>
       <c r="D147">
-        <v>0.2545</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3145</v>
+        <v>0.1494</v>
       </c>
       <c r="C148">
-        <v>0.06619999999999999</v>
+        <v>0.0576</v>
       </c>
       <c r="D148">
-        <v>0.2483</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3071</v>
+        <v>0.1463</v>
       </c>
       <c r="C149">
-        <v>0.0649</v>
+        <v>0.0563</v>
       </c>
       <c r="D149">
-        <v>0.2422</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3007</v>
+        <v>0.145</v>
       </c>
       <c r="C150">
-        <v>0.0641</v>
+        <v>0.0557</v>
       </c>
       <c r="D150">
-        <v>0.2365</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.2949</v>
+        <v>0.1453</v>
       </c>
       <c r="C151">
-        <v>0.0639</v>
+        <v>0.0557</v>
       </c>
       <c r="D151">
-        <v>0.231</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.289</v>
+        <v>0.1463</v>
       </c>
       <c r="C152">
-        <v>0.06370000000000001</v>
+        <v>0.0557</v>
       </c>
       <c r="D152">
-        <v>0.2254</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2835</v>
+        <v>0.1485</v>
       </c>
       <c r="C153">
-        <v>0.0635</v>
+        <v>0.0558</v>
       </c>
       <c r="D153">
-        <v>0.22</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.278</v>
+        <v>0.1514</v>
       </c>
       <c r="C154">
-        <v>0.0629</v>
+        <v>0.0557</v>
       </c>
       <c r="D154">
-        <v>0.215</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.272</v>
+        <v>0.1545</v>
       </c>
       <c r="C155">
-        <v>0.062</v>
+        <v>0.0552</v>
       </c>
       <c r="D155">
-        <v>0.2101</v>
+        <v>0.0994</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2663</v>
+        <v>0.1585</v>
       </c>
       <c r="C156">
-        <v>0.0611</v>
+        <v>0.0548</v>
       </c>
       <c r="D156">
-        <v>0.2052</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2608</v>
+        <v>0.1631</v>
       </c>
       <c r="C157">
-        <v>0.06</v>
+        <v>0.0542</v>
       </c>
       <c r="D157">
-        <v>0.2008</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2556</v>
+        <v>0.1687</v>
       </c>
       <c r="C158">
-        <v>0.059</v>
+        <v>0.0538</v>
       </c>
       <c r="D158">
-        <v>0.1966</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2521</v>
+        <v>0.1764</v>
       </c>
       <c r="C159">
-        <v>0.0592</v>
+        <v>0.0546</v>
       </c>
       <c r="D159">
-        <v>0.1929</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.2497</v>
+        <v>0.1853</v>
       </c>
       <c r="C160">
-        <v>0.0592</v>
+        <v>0.0553</v>
       </c>
       <c r="D160">
-        <v>0.1906</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.2476</v>
+        <v>0.1948</v>
       </c>
       <c r="C161">
-        <v>0.0592</v>
+        <v>0.056</v>
       </c>
       <c r="D161">
-        <v>0.1884</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2459</v>
+        <v>0.2048</v>
       </c>
       <c r="C162">
-        <v>0.0595</v>
+        <v>0.057</v>
       </c>
       <c r="D162">
-        <v>0.1864</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2445</v>
+        <v>0.215</v>
       </c>
       <c r="C163">
-        <v>0.0598</v>
+        <v>0.0581</v>
       </c>
       <c r="D163">
-        <v>0.1846</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2436</v>
+        <v>0.2256</v>
       </c>
       <c r="C164">
-        <v>0.0604</v>
+        <v>0.0595</v>
       </c>
       <c r="D164">
-        <v>0.1832</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2435</v>
+        <v>0.2365</v>
       </c>
       <c r="C165">
-        <v>0.0614</v>
+        <v>0.0612</v>
       </c>
       <c r="D165">
-        <v>0.1821</v>
+        <v>0.1753</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2426</v>
+        <v>0.2463</v>
       </c>
       <c r="C166">
-        <v>0.062</v>
+        <v>0.0626</v>
       </c>
       <c r="D166">
-        <v>0.1806</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2416</v>
+        <v>0.2554</v>
       </c>
       <c r="C167">
-        <v>0.0625</v>
+        <v>0.0638</v>
       </c>
       <c r="D167">
-        <v>0.1791</v>
+        <v>0.1916</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.241</v>
+        <v>0.264</v>
       </c>
       <c r="C168">
-        <v>0.0633</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D168">
-        <v>0.1777</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.24</v>
+        <v>0.2713</v>
       </c>
       <c r="C169">
-        <v>0.0638</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="D169">
-        <v>0.1762</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2379</v>
+        <v>0.2763</v>
       </c>
       <c r="C170">
-        <v>0.0636</v>
+        <v>0.0664</v>
       </c>
       <c r="D170">
-        <v>0.1743</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2358</v>
+        <v>0.2803</v>
       </c>
       <c r="C171">
-        <v>0.06320000000000001</v>
+        <v>0.0664</v>
       </c>
       <c r="D171">
-        <v>0.1725</v>
+        <v>0.2139</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2339</v>
+        <v>0.2836</v>
       </c>
       <c r="C172">
-        <v>0.0631</v>
+        <v>0.0665</v>
       </c>
       <c r="D172">
-        <v>0.1709</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2318</v>
+        <v>0.2857</v>
       </c>
       <c r="C173">
-        <v>0.0624</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D173">
-        <v>0.1694</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2307</v>
+        <v>0.2882</v>
       </c>
       <c r="C174">
-        <v>0.06279999999999999</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D174">
-        <v>0.1679</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2304</v>
+        <v>0.291</v>
       </c>
       <c r="C175">
-        <v>0.06370000000000001</v>
+        <v>0.0677</v>
       </c>
       <c r="D175">
-        <v>0.1667</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.231</v>
+        <v>0.2942</v>
       </c>
       <c r="C176">
-        <v>0.06510000000000001</v>
+        <v>0.0693</v>
       </c>
       <c r="D176">
-        <v>0.1659</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2318</v>
+        <v>0.2972</v>
       </c>
       <c r="C177">
-        <v>0.06660000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D177">
-        <v>0.1652</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2329</v>
+        <v>0.3001</v>
       </c>
       <c r="C178">
-        <v>0.06850000000000001</v>
+        <v>0.0731</v>
       </c>
       <c r="D178">
-        <v>0.1644</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2332</v>
+        <v>0.3016</v>
       </c>
       <c r="C179">
-        <v>0.06909999999999999</v>
+        <v>0.0738</v>
       </c>
       <c r="D179">
-        <v>0.1641</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2326</v>
+        <v>0.3023</v>
       </c>
       <c r="C180">
-        <v>0.0699</v>
+        <v>0.0747</v>
       </c>
       <c r="D180">
-        <v>0.1627</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2323</v>
+        <v>0.303</v>
       </c>
       <c r="C181">
-        <v>0.0709</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D181">
-        <v>0.1615</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2322</v>
+        <v>0.3037</v>
       </c>
       <c r="C182">
-        <v>0.0716</v>
+        <v>0.0766</v>
       </c>
       <c r="D182">
-        <v>0.1606</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.2327</v>
+        <v>0.305</v>
       </c>
       <c r="C183">
-        <v>0.0725</v>
+        <v>0.0776</v>
       </c>
       <c r="D183">
-        <v>0.1602</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.233</v>
+        <v>0.3064</v>
       </c>
       <c r="C184">
-        <v>0.0731</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="D184">
-        <v>0.1599</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2328</v>
+        <v>0.3074</v>
       </c>
       <c r="C185">
-        <v>0.0731</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D185">
-        <v>0.1597</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2328</v>
+        <v>0.3091</v>
       </c>
       <c r="C186">
-        <v>0.0731</v>
+        <v>0.0784</v>
       </c>
       <c r="D186">
-        <v>0.1597</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.2334</v>
+        <v>0.3116</v>
       </c>
       <c r="C187">
-        <v>0.0731</v>
+        <v>0.0784</v>
       </c>
       <c r="D187">
-        <v>0.1603</v>
+        <v>0.2332</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2336</v>
+        <v>0.3137</v>
       </c>
       <c r="C188">
-        <v>0.0725</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="D188">
-        <v>0.1611</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.234</v>
+        <v>0.3162</v>
       </c>
       <c r="C189">
-        <v>0.07199999999999999</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D189">
-        <v>0.162</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.2352</v>
+        <v>0.3197</v>
       </c>
       <c r="C190">
-        <v>0.07190000000000001</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D190">
-        <v>0.1633</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2368</v>
+        <v>0.3236</v>
       </c>
       <c r="C191">
-        <v>0.0718</v>
+        <v>0.0772</v>
       </c>
       <c r="D191">
-        <v>0.165</v>
+        <v>0.2464</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2391</v>
+        <v>0.3282</v>
       </c>
       <c r="C192">
-        <v>0.0717</v>
+        <v>0.0772</v>
       </c>
       <c r="D192">
-        <v>0.1674</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.242</v>
+        <v>0.3334</v>
       </c>
       <c r="C193">
-        <v>0.0721</v>
+        <v>0.0776</v>
       </c>
       <c r="D193">
-        <v>0.17</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2439</v>
+        <v>0.3373</v>
       </c>
       <c r="C194">
-        <v>0.07140000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="D194">
-        <v>0.1725</v>
+        <v>0.2603</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,13 +3866,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2456</v>
+        <v>0.3408</v>
       </c>
       <c r="C195">
-        <v>0.0707</v>
+        <v>0.0762</v>
       </c>
       <c r="D195">
-        <v>0.1749</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2469</v>
+        <v>0.3436</v>
       </c>
       <c r="C196">
-        <v>0.0694</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D196">
-        <v>0.1775</v>
+        <v>0.2687</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2482</v>
+        <v>0.3463</v>
       </c>
       <c r="C197">
-        <v>0.0682</v>
+        <v>0.0736</v>
       </c>
       <c r="D197">
-        <v>0.18</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2511</v>
+        <v>0.35</v>
       </c>
       <c r="C198">
-        <v>0.0672</v>
+        <v>0.0725</v>
       </c>
       <c r="D198">
-        <v>0.1838</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.2533</v>
+        <v>0.3532</v>
       </c>
       <c r="C199">
-        <v>0.06619999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D199">
-        <v>0.1871</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2565</v>
+        <v>0.3571</v>
       </c>
       <c r="C200">
-        <v>0.06569999999999999</v>
+        <v>0.0709</v>
       </c>
       <c r="D200">
-        <v>0.1908</v>
+        <v>0.2861</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2593</v>
+        <v>0.3603</v>
       </c>
       <c r="C201">
-        <v>0.0648</v>
+        <v>0.0699</v>
       </c>
       <c r="D201">
-        <v>0.1945</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2621</v>
+        <v>0.3634</v>
       </c>
       <c r="C202">
-        <v>0.0638</v>
+        <v>0.0689</v>
       </c>
       <c r="D202">
-        <v>0.1982</v>
+        <v>0.2945</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2644</v>
+        <v>0.3656</v>
       </c>
       <c r="C203">
-        <v>0.0624</v>
+        <v>0.0673</v>
       </c>
       <c r="D203">
-        <v>0.2019</v>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2675</v>
+        <v>0.3684</v>
       </c>
       <c r="C204">
-        <v>0.0616</v>
+        <v>0.0663</v>
       </c>
       <c r="D204">
-        <v>0.2059</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2711</v>
+        <v>0.3711</v>
       </c>
       <c r="C205">
-        <v>0.0608</v>
+        <v>0.0655</v>
       </c>
       <c r="D205">
-        <v>0.2102</v>
+        <v>0.3056</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2748</v>
+        <v>0.3735</v>
       </c>
       <c r="C206">
-        <v>0.06</v>
+        <v>0.0646</v>
       </c>
       <c r="D206">
-        <v>0.2147</v>
+        <v>0.3089</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2782</v>
+        <v>0.3751</v>
       </c>
       <c r="C207">
-        <v>0.0592</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D207">
-        <v>0.2189</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2824</v>
+        <v>0.3775</v>
       </c>
       <c r="C208">
-        <v>0.0593</v>
+        <v>0.0636</v>
       </c>
       <c r="D208">
-        <v>0.2232</v>
+        <v>0.3138</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2868</v>
+        <v>0.3795</v>
       </c>
       <c r="C209">
-        <v>0.0593</v>
+        <v>0.0635</v>
       </c>
       <c r="D209">
-        <v>0.2275</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.2915</v>
+        <v>0.3816</v>
       </c>
       <c r="C210">
-        <v>0.0597</v>
+        <v>0.0638</v>
       </c>
       <c r="D210">
-        <v>0.2318</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2956</v>
+        <v>0.3828</v>
       </c>
       <c r="C211">
-        <v>0.0596</v>
+        <v>0.0636</v>
       </c>
       <c r="D211">
-        <v>0.236</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2993</v>
+        <v>0.3831</v>
       </c>
       <c r="C212">
-        <v>0.0594</v>
+        <v>0.0633</v>
       </c>
       <c r="D212">
-        <v>0.2399</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3025</v>
+        <v>0.3825</v>
       </c>
       <c r="C213">
-        <v>0.0589</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D213">
-        <v>0.2436</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3065</v>
+        <v>0.3823</v>
       </c>
       <c r="C214">
-        <v>0.059</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D214">
-        <v>0.2475</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3111</v>
+        <v>0.3822</v>
       </c>
       <c r="C215">
-        <v>0.0594</v>
+        <v>0.063</v>
       </c>
       <c r="D215">
-        <v>0.2517</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3154</v>
+        <v>0.3815</v>
       </c>
       <c r="C216">
-        <v>0.0598</v>
+        <v>0.0633</v>
       </c>
       <c r="D216">
-        <v>0.2557</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3197</v>
+        <v>0.3805</v>
       </c>
       <c r="C217">
-        <v>0.0604</v>
+        <v>0.0638</v>
       </c>
       <c r="D217">
-        <v>0.2593</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3226</v>
+        <v>0.3781</v>
       </c>
       <c r="C218">
-        <v>0.061</v>
+        <v>0.0643</v>
       </c>
       <c r="D218">
-        <v>0.2616</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3298</v>
+        <v>0.3788</v>
       </c>
       <c r="C219">
-        <v>0.0617</v>
+        <v>0.0649</v>
       </c>
       <c r="D219">
-        <v>0.2681</v>
+        <v>0.3139</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3375</v>
+        <v>0.3797</v>
       </c>
       <c r="C220">
-        <v>0.0623</v>
+        <v>0.0654</v>
       </c>
       <c r="D220">
-        <v>0.2751</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3482</v>
+        <v>0.3829</v>
       </c>
       <c r="C221">
-        <v>0.0635</v>
+        <v>0.0665</v>
       </c>
       <c r="D221">
-        <v>0.2847</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3602</v>
+        <v>0.3869</v>
       </c>
       <c r="C222">
-        <v>0.0648</v>
+        <v>0.0677</v>
       </c>
       <c r="D222">
-        <v>0.2953</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3712</v>
+        <v>0.3903</v>
       </c>
       <c r="C223">
-        <v>0.06619999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D223">
-        <v>0.305</v>
+        <v>0.3213</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3806</v>
+        <v>0.3925</v>
       </c>
       <c r="C224">
-        <v>0.0672</v>
+        <v>0.0699</v>
       </c>
       <c r="D224">
-        <v>0.3135</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3893</v>
+        <v>0.3942</v>
       </c>
       <c r="C225">
-        <v>0.0683</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D225">
-        <v>0.321</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3973</v>
+        <v>0.3955</v>
       </c>
       <c r="C226">
-        <v>0.0697</v>
+        <v>0.0723</v>
       </c>
       <c r="D226">
-        <v>0.3276</v>
+        <v>0.3233</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4044</v>
+        <v>0.3964</v>
       </c>
       <c r="C227">
-        <v>0.0708</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="D227">
-        <v>0.3335</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4101</v>
+        <v>0.3962</v>
       </c>
       <c r="C228">
-        <v>0.0713</v>
+        <v>0.0737</v>
       </c>
       <c r="D228">
-        <v>0.3388</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4153</v>
+        <v>0.3959</v>
       </c>
       <c r="C229">
-        <v>0.0718</v>
+        <v>0.0741</v>
       </c>
       <c r="D229">
-        <v>0.3435</v>
+        <v>0.3219</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4196</v>
+        <v>0.3953</v>
       </c>
       <c r="C230">
-        <v>0.07190000000000001</v>
+        <v>0.0741</v>
       </c>
       <c r="D230">
-        <v>0.3477</v>
+        <v>0.3212</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4241</v>
+        <v>0.3953</v>
       </c>
       <c r="C231">
-        <v>0.0725</v>
+        <v>0.0747</v>
       </c>
       <c r="D231">
-        <v>0.3515</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.428</v>
+        <v>0.3952</v>
       </c>
       <c r="C232">
-        <v>0.0731</v>
+        <v>0.0752</v>
       </c>
       <c r="D232">
-        <v>0.3549</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4317</v>
+        <v>0.3955</v>
       </c>
       <c r="C233">
-        <v>0.0736</v>
+        <v>0.0756</v>
       </c>
       <c r="D233">
-        <v>0.3581</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4352</v>
+        <v>0.3959</v>
       </c>
       <c r="C234">
-        <v>0.07389999999999999</v>
+        <v>0.0759</v>
       </c>
       <c r="D234">
-        <v>0.3613</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4381</v>
+        <v>0.3963</v>
       </c>
       <c r="C235">
-        <v>0.0742</v>
+        <v>0.0761</v>
       </c>
       <c r="D235">
-        <v>0.3639</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4411</v>
+        <v>0.3972</v>
       </c>
       <c r="C236">
-        <v>0.07439999999999999</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D236">
-        <v>0.3667</v>
+        <v>0.3209</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4436</v>
+        <v>0.398</v>
       </c>
       <c r="C237">
-        <v>0.0745</v>
+        <v>0.0764</v>
       </c>
       <c r="D237">
-        <v>0.3691</v>
+        <v>0.3217</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4457</v>
+        <v>0.3987</v>
       </c>
       <c r="C238">
-        <v>0.07439999999999999</v>
+        <v>0.0762</v>
       </c>
       <c r="D238">
-        <v>0.3713</v>
+        <v>0.3224</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4429</v>
+        <v>0.3958</v>
       </c>
       <c r="C239">
-        <v>0.074</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D239">
-        <v>0.3689</v>
+        <v>0.3199</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,13 +4496,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.439</v>
+        <v>0.3922</v>
       </c>
       <c r="C240">
-        <v>0.0737</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D240">
-        <v>0.3653</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.432</v>
+        <v>0.3863</v>
       </c>
       <c r="C241">
-        <v>0.073</v>
+        <v>0.0747</v>
       </c>
       <c r="D241">
-        <v>0.359</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4242</v>
+        <v>0.3799</v>
       </c>
       <c r="C242">
-        <v>0.0725</v>
+        <v>0.0742</v>
       </c>
       <c r="D242">
-        <v>0.3516</v>
+        <v>0.3057</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4183</v>
+        <v>0.3752</v>
       </c>
       <c r="C243">
-        <v>0.0728</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D243">
-        <v>0.3455</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4552,13 +4552,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4127</v>
+        <v>0.3708</v>
       </c>
       <c r="C244">
-        <v>0.07290000000000001</v>
+        <v>0.0745</v>
       </c>
       <c r="D244">
-        <v>0.3398</v>
+        <v>0.2963</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4076</v>
+        <v>0.3667</v>
       </c>
       <c r="C245">
-        <v>0.073</v>
+        <v>0.0746</v>
       </c>
       <c r="D245">
-        <v>0.3346</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4026</v>
+        <v>0.3625</v>
       </c>
       <c r="C246">
-        <v>0.07290000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D246">
-        <v>0.3298</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3981</v>
+        <v>0.3586</v>
       </c>
       <c r="C247">
-        <v>0.07290000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D247">
-        <v>0.3252</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3937</v>
+        <v>0.3549</v>
       </c>
       <c r="C248">
-        <v>0.073</v>
+        <v>0.0745</v>
       </c>
       <c r="D248">
-        <v>0.3207</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3893</v>
+        <v>0.351</v>
       </c>
       <c r="C249">
-        <v>0.0728</v>
+        <v>0.0743</v>
       </c>
       <c r="D249">
-        <v>0.3164</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3853</v>
+        <v>0.3476</v>
       </c>
       <c r="C250">
-        <v>0.073</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D250">
-        <v>0.3123</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3813</v>
+        <v>0.344</v>
       </c>
       <c r="C251">
-        <v>0.07290000000000001</v>
+        <v>0.0743</v>
       </c>
       <c r="D251">
-        <v>0.3084</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3773</v>
+        <v>0.3405</v>
       </c>
       <c r="C252">
-        <v>0.0728</v>
+        <v>0.0742</v>
       </c>
       <c r="D252">
-        <v>0.3045</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3741</v>
+        <v>0.3377</v>
       </c>
       <c r="C253">
-        <v>0.0733</v>
+        <v>0.0747</v>
       </c>
       <c r="D253">
-        <v>0.3007</v>
+        <v>0.263</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2016 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2016 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3101</v>
+        <v>0.3086</v>
       </c>
       <c r="C2">
         <v>0.075</v>
       </c>
       <c r="D2">
-        <v>0.2351</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3144</v>
+        <v>0.3129</v>
       </c>
       <c r="C3">
         <v>0.0764</v>
       </c>
       <c r="D3">
-        <v>0.238</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3193</v>
+        <v>0.3178</v>
       </c>
       <c r="C4">
-        <v>0.07779999999999999</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="D4">
-        <v>0.2415</v>
+        <v>0.2401</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3247</v>
+        <v>0.3232</v>
       </c>
       <c r="C5">
         <v>0.0794</v>
       </c>
       <c r="D5">
-        <v>0.2453</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3309</v>
+        <v>0.3294</v>
       </c>
       <c r="C6">
         <v>0.08169999999999999</v>
       </c>
       <c r="D6">
-        <v>0.2492</v>
+        <v>0.2477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3379</v>
+        <v>0.3364</v>
       </c>
       <c r="C7">
-        <v>0.08459999999999999</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D7">
-        <v>0.2533</v>
+        <v>0.2518</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3444</v>
+        <v>0.3429</v>
       </c>
       <c r="C8">
-        <v>0.0872</v>
+        <v>0.0871</v>
       </c>
       <c r="D8">
-        <v>0.2572</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3497</v>
+        <v>0.3482</v>
       </c>
       <c r="C9">
         <v>0.08890000000000001</v>
       </c>
       <c r="D9">
-        <v>0.2608</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3543</v>
+        <v>0.3528</v>
       </c>
       <c r="C10">
-        <v>0.09</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D10">
-        <v>0.2643</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3594</v>
+        <v>0.3579</v>
       </c>
       <c r="C11">
-        <v>0.0915</v>
+        <v>0.0914</v>
       </c>
       <c r="D11">
-        <v>0.2679</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3654</v>
+        <v>0.3639</v>
       </c>
       <c r="C12">
         <v>0.09370000000000001</v>
       </c>
       <c r="D12">
-        <v>0.2717</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3706</v>
+        <v>0.3691</v>
       </c>
       <c r="C13">
-        <v>0.09520000000000001</v>
+        <v>0.0951</v>
       </c>
       <c r="D13">
-        <v>0.2754</v>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.376</v>
+        <v>0.3745</v>
       </c>
       <c r="C14">
-        <v>0.0968</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="D14">
-        <v>0.2793</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3791</v>
+        <v>0.3775</v>
       </c>
       <c r="C15">
-        <v>0.0965</v>
+        <v>0.0964</v>
       </c>
       <c r="D15">
-        <v>0.2825</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3819</v>
+        <v>0.3804</v>
       </c>
       <c r="C16">
         <v>0.0964</v>
       </c>
       <c r="D16">
-        <v>0.2855</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3851</v>
+        <v>0.3836</v>
       </c>
       <c r="C17">
         <v>0.09660000000000001</v>
       </c>
       <c r="D17">
-        <v>0.2885</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3875</v>
+        <v>0.3859</v>
       </c>
       <c r="C18">
-        <v>0.0961</v>
+        <v>0.096</v>
       </c>
       <c r="D18">
-        <v>0.2914</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3891</v>
+        <v>0.3875</v>
       </c>
       <c r="C19">
         <v>0.0954</v>
       </c>
       <c r="D19">
-        <v>0.2936</v>
+        <v>0.2922</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3902</v>
+        <v>0.3887</v>
       </c>
       <c r="C20">
-        <v>0.0945</v>
+        <v>0.0944</v>
       </c>
       <c r="D20">
-        <v>0.2957</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3929</v>
+        <v>0.3914</v>
       </c>
       <c r="C21">
         <v>0.09429999999999999</v>
       </c>
       <c r="D21">
-        <v>0.2985</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3948</v>
+        <v>0.3933</v>
       </c>
       <c r="C22">
-        <v>0.0941</v>
+        <v>0.094</v>
       </c>
       <c r="D22">
-        <v>0.3007</v>
+        <v>0.2993</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3952</v>
+        <v>0.3937</v>
       </c>
       <c r="C23">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D23">
-        <v>0.3022</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3952</v>
+        <v>0.3937</v>
       </c>
       <c r="C24">
         <v>0.0919</v>
       </c>
       <c r="D24">
-        <v>0.3032</v>
+        <v>0.3018</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3945</v>
+        <v>0.393</v>
       </c>
       <c r="C25">
-        <v>0.0906</v>
+        <v>0.0905</v>
       </c>
       <c r="D25">
-        <v>0.3039</v>
+        <v>0.3025</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3939</v>
+        <v>0.3925</v>
       </c>
       <c r="C26">
         <v>0.0896</v>
       </c>
       <c r="D26">
-        <v>0.3043</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3925</v>
+        <v>0.3911</v>
       </c>
       <c r="C27">
-        <v>0.0882</v>
+        <v>0.0881</v>
       </c>
       <c r="D27">
-        <v>0.3043</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3916</v>
+        <v>0.3903</v>
       </c>
       <c r="C28">
-        <v>0.08749999999999999</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="D28">
-        <v>0.3041</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3913</v>
+        <v>0.39</v>
       </c>
       <c r="C29">
         <v>0.0871</v>
       </c>
       <c r="D29">
-        <v>0.3042</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3919</v>
+        <v>0.3906</v>
       </c>
       <c r="C30">
         <v>0.0877</v>
       </c>
       <c r="D30">
-        <v>0.3042</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.391</v>
+        <v>0.3898</v>
       </c>
       <c r="C31">
-        <v>0.0871</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D31">
-        <v>0.3039</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3899</v>
+        <v>0.3886</v>
       </c>
       <c r="C32">
         <v>0.0864</v>
       </c>
       <c r="D32">
-        <v>0.3035</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3886</v>
+        <v>0.3874</v>
       </c>
       <c r="C33">
         <v>0.0859</v>
       </c>
       <c r="D33">
-        <v>0.3026</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3869</v>
+        <v>0.3858</v>
       </c>
       <c r="C34">
         <v>0.0858</v>
       </c>
       <c r="D34">
-        <v>0.3011</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3859</v>
+        <v>0.3849</v>
       </c>
       <c r="C35">
         <v>0.0862</v>
       </c>
       <c r="D35">
-        <v>0.2997</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3852</v>
+        <v>0.3841</v>
       </c>
       <c r="C36">
         <v>0.0866</v>
       </c>
       <c r="D36">
-        <v>0.2985</v>
+        <v>0.2975</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3839</v>
+        <v>0.3829</v>
       </c>
       <c r="C37">
         <v>0.0868</v>
       </c>
       <c r="D37">
-        <v>0.2971</v>
+        <v>0.2961</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3842</v>
+        <v>0.3832</v>
       </c>
       <c r="C38">
-        <v>0.0882</v>
+        <v>0.0881</v>
       </c>
       <c r="D38">
-        <v>0.296</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3852</v>
+        <v>0.3842</v>
       </c>
       <c r="C39">
-        <v>0.0897</v>
+        <v>0.0896</v>
       </c>
       <c r="D39">
-        <v>0.2955</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3862</v>
+        <v>0.3852</v>
       </c>
       <c r="C40">
         <v>0.0912</v>
       </c>
       <c r="D40">
-        <v>0.295</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3863</v>
+        <v>0.3855</v>
       </c>
       <c r="C41">
         <v>0.0929</v>
       </c>
       <c r="D41">
-        <v>0.2934</v>
+        <v>0.2926</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3871</v>
+        <v>0.3863</v>
       </c>
       <c r="C42">
         <v>0.095</v>
       </c>
       <c r="D42">
-        <v>0.2921</v>
+        <v>0.2913</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3885</v>
+        <v>0.3877</v>
       </c>
       <c r="C43">
-        <v>0.0974</v>
+        <v>0.0973</v>
       </c>
       <c r="D43">
-        <v>0.2912</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3889</v>
+        <v>0.3881</v>
       </c>
       <c r="C44">
         <v>0.0987</v>
       </c>
       <c r="D44">
-        <v>0.2902</v>
+        <v>0.2895</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3896</v>
+        <v>0.3889</v>
       </c>
       <c r="C45">
         <v>0.1002</v>
       </c>
       <c r="D45">
-        <v>0.2894</v>
+        <v>0.2887</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3898</v>
+        <v>0.389</v>
       </c>
       <c r="C46">
         <v>0.101</v>
       </c>
       <c r="D46">
-        <v>0.2888</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3899</v>
+        <v>0.3892</v>
       </c>
       <c r="C47">
         <v>0.1017</v>
       </c>
       <c r="D47">
-        <v>0.2882</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3892</v>
+        <v>0.3884</v>
       </c>
       <c r="C48">
         <v>0.1014</v>
       </c>
       <c r="D48">
-        <v>0.2878</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3884</v>
+        <v>0.3877</v>
       </c>
       <c r="C49">
-        <v>0.1014</v>
+        <v>0.1013</v>
       </c>
       <c r="D49">
-        <v>0.2871</v>
+        <v>0.2863</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3872</v>
+        <v>0.3864</v>
       </c>
       <c r="C50">
         <v>0.1009</v>
       </c>
       <c r="D50">
-        <v>0.2863</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3877</v>
+        <v>0.3869</v>
       </c>
       <c r="C51">
         <v>0.1021</v>
       </c>
       <c r="D51">
-        <v>0.2856</v>
+        <v>0.2849</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3872</v>
+        <v>0.3864</v>
       </c>
       <c r="C52">
         <v>0.1024</v>
       </c>
       <c r="D52">
-        <v>0.2848</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3874</v>
+        <v>0.3865</v>
       </c>
       <c r="C53">
-        <v>0.1029</v>
+        <v>0.1028</v>
       </c>
       <c r="D53">
-        <v>0.2845</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3874</v>
+        <v>0.3865</v>
       </c>
       <c r="C54">
         <v>0.1029</v>
       </c>
       <c r="D54">
-        <v>0.2845</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3877</v>
+        <v>0.3867</v>
       </c>
       <c r="C55">
-        <v>0.103</v>
+        <v>0.1029</v>
       </c>
       <c r="D55">
-        <v>0.2847</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3898</v>
+        <v>0.3888</v>
       </c>
       <c r="C56">
         <v>0.1048</v>
       </c>
       <c r="D56">
-        <v>0.285</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3921</v>
+        <v>0.391</v>
       </c>
       <c r="C57">
         <v>0.1068</v>
       </c>
       <c r="D57">
-        <v>0.2853</v>
+        <v>0.2843</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3929</v>
+        <v>0.3917</v>
       </c>
       <c r="C58">
         <v>0.1076</v>
       </c>
       <c r="D58">
-        <v>0.2852</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.393</v>
+        <v>0.3918</v>
       </c>
       <c r="C59">
         <v>0.1083</v>
       </c>
       <c r="D59">
-        <v>0.2847</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3924</v>
+        <v>0.3912</v>
       </c>
       <c r="C60">
-        <v>0.1087</v>
+        <v>0.1086</v>
       </c>
       <c r="D60">
-        <v>0.2837</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3909</v>
+        <v>0.3897</v>
       </c>
       <c r="C61">
-        <v>0.1086</v>
+        <v>0.1085</v>
       </c>
       <c r="D61">
-        <v>0.2824</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3892</v>
+        <v>0.388</v>
       </c>
       <c r="C62">
         <v>0.1082</v>
       </c>
       <c r="D62">
-        <v>0.281</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3871</v>
+        <v>0.3858</v>
       </c>
       <c r="C63">
         <v>0.1075</v>
       </c>
       <c r="D63">
-        <v>0.2796</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3859</v>
+        <v>0.3846</v>
       </c>
       <c r="C64">
         <v>0.1077</v>
       </c>
       <c r="D64">
-        <v>0.2782</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3842</v>
+        <v>0.3829</v>
       </c>
       <c r="C65">
-        <v>0.1076</v>
+        <v>0.1075</v>
       </c>
       <c r="D65">
-        <v>0.2766</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3817</v>
+        <v>0.3804</v>
       </c>
       <c r="C66">
         <v>0.1069</v>
       </c>
       <c r="D66">
-        <v>0.2748</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3787</v>
+        <v>0.3773</v>
       </c>
       <c r="C67">
         <v>0.1057</v>
       </c>
       <c r="D67">
-        <v>0.2729</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3755</v>
+        <v>0.3742</v>
       </c>
       <c r="C68">
         <v>0.1045</v>
       </c>
       <c r="D68">
-        <v>0.271</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3723</v>
+        <v>0.371</v>
       </c>
       <c r="C69">
         <v>0.1029</v>
       </c>
       <c r="D69">
-        <v>0.2694</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3698</v>
+        <v>0.3684</v>
       </c>
       <c r="C70">
-        <v>0.1016</v>
+        <v>0.1015</v>
       </c>
       <c r="D70">
-        <v>0.2682</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3665</v>
+        <v>0.3651</v>
       </c>
       <c r="C71">
         <v>0.0993</v>
       </c>
       <c r="D71">
-        <v>0.2672</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3644</v>
+        <v>0.363</v>
       </c>
       <c r="C72">
-        <v>0.0978</v>
+        <v>0.0977</v>
       </c>
       <c r="D72">
-        <v>0.2666</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3629</v>
+        <v>0.3615</v>
       </c>
       <c r="C73">
-        <v>0.0969</v>
+        <v>0.0968</v>
       </c>
       <c r="D73">
-        <v>0.266</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3612</v>
+        <v>0.3598</v>
       </c>
       <c r="C74">
-        <v>0.0958</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D74">
-        <v>0.2654</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3591</v>
+        <v>0.3577</v>
       </c>
       <c r="C75">
-        <v>0.0946</v>
+        <v>0.0945</v>
       </c>
       <c r="D75">
-        <v>0.2645</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3552</v>
+        <v>0.3539</v>
       </c>
       <c r="C76">
-        <v>0.0916</v>
+        <v>0.0915</v>
       </c>
       <c r="D76">
-        <v>0.2636</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.351</v>
+        <v>0.3497</v>
       </c>
       <c r="C77">
-        <v>0.0885</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="D77">
-        <v>0.2625</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.347</v>
+        <v>0.3458</v>
       </c>
       <c r="C78">
-        <v>0.0858</v>
+        <v>0.0857</v>
       </c>
       <c r="D78">
-        <v>0.2613</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3429</v>
+        <v>0.3417</v>
       </c>
       <c r="C79">
-        <v>0.0827</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D79">
-        <v>0.2602</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3394</v>
+        <v>0.3382</v>
       </c>
       <c r="C80">
-        <v>0.0798</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="D80">
-        <v>0.2596</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3363</v>
+        <v>0.3351</v>
       </c>
       <c r="C81">
-        <v>0.0767</v>
+        <v>0.0766</v>
       </c>
       <c r="D81">
-        <v>0.2596</v>
+        <v>0.2584</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3331</v>
+        <v>0.3319</v>
       </c>
       <c r="C82">
-        <v>0.0737</v>
+        <v>0.0736</v>
       </c>
       <c r="D82">
-        <v>0.2594</v>
+        <v>0.2583</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3303</v>
+        <v>0.3291</v>
       </c>
       <c r="C83">
-        <v>0.0711</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D83">
-        <v>0.2592</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3269</v>
+        <v>0.3258</v>
       </c>
       <c r="C84">
         <v>0.068</v>
       </c>
       <c r="D84">
-        <v>0.2589</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3247</v>
+        <v>0.3236</v>
       </c>
       <c r="C85">
-        <v>0.0659</v>
+        <v>0.0658</v>
       </c>
       <c r="D85">
-        <v>0.2588</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3225</v>
+        <v>0.3215</v>
       </c>
       <c r="C86">
-        <v>0.0639</v>
+        <v>0.0638</v>
       </c>
       <c r="D86">
-        <v>0.2586</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3207</v>
+        <v>0.3196</v>
       </c>
       <c r="C87">
         <v>0.0623</v>
       </c>
       <c r="D87">
-        <v>0.2583</v>
+        <v>0.2573</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3188</v>
+        <v>0.3177</v>
       </c>
       <c r="C88">
-        <v>0.061</v>
+        <v>0.0609</v>
       </c>
       <c r="D88">
-        <v>0.2578</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3167</v>
+        <v>0.3157</v>
       </c>
       <c r="C89">
         <v>0.0602</v>
       </c>
       <c r="D89">
-        <v>0.2565</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3131</v>
+        <v>0.3121</v>
       </c>
       <c r="C90">
         <v>0.0589</v>
       </c>
       <c r="D90">
-        <v>0.2542</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3093</v>
+        <v>0.3083</v>
       </c>
       <c r="C91">
-        <v>0.058</v>
+        <v>0.0579</v>
       </c>
       <c r="D91">
-        <v>0.2513</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3053</v>
+        <v>0.3043</v>
       </c>
       <c r="C92">
-        <v>0.0574</v>
+        <v>0.0573</v>
       </c>
       <c r="D92">
-        <v>0.2479</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.3002</v>
+        <v>0.2992</v>
       </c>
       <c r="C93">
-        <v>0.0563</v>
+        <v>0.0562</v>
       </c>
       <c r="D93">
-        <v>0.2439</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2956</v>
+        <v>0.2946</v>
       </c>
       <c r="C94">
         <v>0.0559</v>
       </c>
       <c r="D94">
-        <v>0.2397</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2911</v>
+        <v>0.2901</v>
       </c>
       <c r="C95">
         <v>0.0556</v>
       </c>
       <c r="D95">
-        <v>0.2355</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2868</v>
+        <v>0.2858</v>
       </c>
       <c r="C96">
-        <v>0.0555</v>
+        <v>0.0554</v>
       </c>
       <c r="D96">
-        <v>0.2313</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2821</v>
+        <v>0.2811</v>
       </c>
       <c r="C97">
         <v>0.0551</v>
       </c>
       <c r="D97">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2778</v>
+        <v>0.2767</v>
       </c>
       <c r="C98">
-        <v>0.0552</v>
+        <v>0.0551</v>
       </c>
       <c r="D98">
-        <v>0.2226</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2734</v>
+        <v>0.2723</v>
       </c>
       <c r="C99">
         <v>0.0556</v>
       </c>
       <c r="D99">
-        <v>0.2178</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2692</v>
+        <v>0.268</v>
       </c>
       <c r="C100">
         <v>0.0566</v>
       </c>
       <c r="D100">
-        <v>0.2126</v>
+        <v>0.2115</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2649</v>
+        <v>0.2637</v>
       </c>
       <c r="C101">
         <v>0.0579</v>
       </c>
       <c r="D101">
-        <v>0.207</v>
+        <v>0.2058</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2606</v>
+        <v>0.2593</v>
       </c>
       <c r="C102">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
       <c r="D102">
-        <v>0.2014</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2554</v>
+        <v>0.2541</v>
       </c>
       <c r="C103">
-        <v>0.0598</v>
+        <v>0.0597</v>
       </c>
       <c r="D103">
-        <v>0.1956</v>
+        <v>0.1944</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2507</v>
+        <v>0.2494</v>
       </c>
       <c r="C104">
-        <v>0.0607</v>
+        <v>0.0606</v>
       </c>
       <c r="D104">
-        <v>0.19</v>
+        <v>0.1888</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2458</v>
+        <v>0.2445</v>
       </c>
       <c r="C105">
-        <v>0.0612</v>
+        <v>0.0611</v>
       </c>
       <c r="D105">
-        <v>0.1846</v>
+        <v>0.1833</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2413</v>
+        <v>0.2399</v>
       </c>
       <c r="C106">
-        <v>0.0617</v>
+        <v>0.0616</v>
       </c>
       <c r="D106">
-        <v>0.1796</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2381</v>
+        <v>0.2366</v>
       </c>
       <c r="C107">
-        <v>0.06279999999999999</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D107">
-        <v>0.1754</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2356</v>
+        <v>0.234</v>
       </c>
       <c r="C108">
-        <v>0.0638</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D108">
-        <v>0.1718</v>
+        <v>0.1703</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2339</v>
+        <v>0.2323</v>
       </c>
       <c r="C109">
-        <v>0.06469999999999999</v>
+        <v>0.0646</v>
       </c>
       <c r="D109">
-        <v>0.1692</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2339</v>
+        <v>0.2322</v>
       </c>
       <c r="C110">
-        <v>0.066</v>
+        <v>0.0659</v>
       </c>
       <c r="D110">
-        <v>0.1679</v>
+        <v>0.1664</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2348</v>
+        <v>0.2331</v>
       </c>
       <c r="C111">
-        <v>0.0673</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="D111">
-        <v>0.1675</v>
+        <v>0.1659</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2352</v>
+        <v>0.2335</v>
       </c>
       <c r="C112">
-        <v>0.0677</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D112">
-        <v>0.1675</v>
+        <v>0.1659</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2359</v>
+        <v>0.2341</v>
       </c>
       <c r="C113">
-        <v>0.068</v>
+        <v>0.0679</v>
       </c>
       <c r="D113">
-        <v>0.1679</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2364</v>
+        <v>0.2346</v>
       </c>
       <c r="C114">
-        <v>0.06809999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="D114">
-        <v>0.1683</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2375</v>
+        <v>0.2356</v>
       </c>
       <c r="C115">
-        <v>0.0687</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="D115">
-        <v>0.1688</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2378</v>
+        <v>0.2359</v>
       </c>
       <c r="C116">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D116">
-        <v>0.1688</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2382</v>
+        <v>0.2362</v>
       </c>
       <c r="C117">
-        <v>0.0694</v>
+        <v>0.0693</v>
       </c>
       <c r="D117">
-        <v>0.1687</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2384</v>
+        <v>0.2365</v>
       </c>
       <c r="C118">
-        <v>0.0699</v>
+        <v>0.0697</v>
       </c>
       <c r="D118">
-        <v>0.1686</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2385</v>
+        <v>0.2365</v>
       </c>
       <c r="C119">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D119">
-        <v>0.1685</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="C120">
-        <v>0.0696</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="D120">
-        <v>0.1683</v>
+        <v>0.1665</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2375</v>
+        <v>0.2355</v>
       </c>
       <c r="C121">
-        <v>0.0694</v>
+        <v>0.0693</v>
       </c>
       <c r="D121">
-        <v>0.1681</v>
+        <v>0.1662</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2373</v>
+        <v>0.2353</v>
       </c>
       <c r="C122">
-        <v>0.06950000000000001</v>
+        <v>0.0694</v>
       </c>
       <c r="D122">
-        <v>0.1678</v>
+        <v>0.1659</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2372</v>
+        <v>0.2352</v>
       </c>
       <c r="C123">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D123">
-        <v>0.1673</v>
+        <v>0.1654</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2361</v>
+        <v>0.234</v>
       </c>
       <c r="C124">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="D124">
-        <v>0.1663</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2348</v>
+        <v>0.2327</v>
       </c>
       <c r="C125">
-        <v>0.0697</v>
+        <v>0.0696</v>
       </c>
       <c r="D125">
-        <v>0.1651</v>
+        <v>0.1632</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2348</v>
+        <v>0.2327</v>
       </c>
       <c r="C126">
-        <v>0.0706</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D126">
-        <v>0.1642</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2346</v>
+        <v>0.2325</v>
       </c>
       <c r="C127">
-        <v>0.0717</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D127">
-        <v>0.1629</v>
+        <v>0.1609</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.234</v>
+        <v>0.2319</v>
       </c>
       <c r="C128">
-        <v>0.07240000000000001</v>
+        <v>0.0723</v>
       </c>
       <c r="D128">
-        <v>0.1616</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.2327</v>
+        <v>0.2306</v>
       </c>
       <c r="C129">
-        <v>0.073</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="D129">
-        <v>0.1597</v>
+        <v>0.1577</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.2301</v>
+        <v>0.228</v>
       </c>
       <c r="C130">
-        <v>0.0731</v>
+        <v>0.073</v>
       </c>
       <c r="D130">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.2264</v>
+        <v>0.2243</v>
       </c>
       <c r="C131">
-        <v>0.0728</v>
+        <v>0.0726</v>
       </c>
       <c r="D131">
-        <v>0.1537</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2225</v>
+        <v>0.2203</v>
       </c>
       <c r="C132">
-        <v>0.0725</v>
+        <v>0.0723</v>
       </c>
       <c r="D132">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2185</v>
+        <v>0.2164</v>
       </c>
       <c r="C133">
-        <v>0.0725</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D133">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2143</v>
+        <v>0.2122</v>
       </c>
       <c r="C134">
-        <v>0.07240000000000001</v>
+        <v>0.0723</v>
       </c>
       <c r="D134">
-        <v>0.1419</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.2098</v>
+        <v>0.2077</v>
       </c>
       <c r="C135">
-        <v>0.07199999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D135">
-        <v>0.1378</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2056</v>
+        <v>0.2035</v>
       </c>
       <c r="C136">
-        <v>0.0717</v>
+        <v>0.0716</v>
       </c>
       <c r="D136">
-        <v>0.1339</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.2013</v>
+        <v>0.1992</v>
       </c>
       <c r="C137">
-        <v>0.0713</v>
+        <v>0.0711</v>
       </c>
       <c r="D137">
-        <v>0.1301</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1968</v>
+        <v>0.1947</v>
       </c>
       <c r="C138">
-        <v>0.07049999999999999</v>
+        <v>0.0703</v>
       </c>
       <c r="D138">
-        <v>0.1263</v>
+        <v>0.1244</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1925</v>
+        <v>0.1904</v>
       </c>
       <c r="C139">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D139">
-        <v>0.1226</v>
+        <v>0.1206</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1877</v>
+        <v>0.1856</v>
       </c>
       <c r="C140">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D140">
-        <v>0.1187</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1828</v>
+        <v>0.1807</v>
       </c>
       <c r="C141">
-        <v>0.068</v>
+        <v>0.0679</v>
       </c>
       <c r="D141">
-        <v>0.1148</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1774</v>
+        <v>0.1753</v>
       </c>
       <c r="C142">
-        <v>0.06660000000000001</v>
+        <v>0.0664</v>
       </c>
       <c r="D142">
-        <v>0.1109</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1727</v>
+        <v>0.1706</v>
       </c>
       <c r="C143">
-        <v>0.0655</v>
+        <v>0.0653</v>
       </c>
       <c r="D143">
-        <v>0.1072</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1686</v>
+        <v>0.1665</v>
       </c>
       <c r="C144">
-        <v>0.06469999999999999</v>
+        <v>0.0645</v>
       </c>
       <c r="D144">
-        <v>0.104</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1638</v>
+        <v>0.1617</v>
       </c>
       <c r="C145">
-        <v>0.0633</v>
+        <v>0.0631</v>
       </c>
       <c r="D145">
-        <v>0.1005</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1587</v>
+        <v>0.1566</v>
       </c>
       <c r="C146">
-        <v>0.0614</v>
+        <v>0.0612</v>
       </c>
       <c r="D146">
-        <v>0.0973</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1537</v>
+        <v>0.1516</v>
       </c>
       <c r="C147">
-        <v>0.0593</v>
+        <v>0.0591</v>
       </c>
       <c r="D147">
-        <v>0.0944</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1494</v>
+        <v>0.1473</v>
       </c>
       <c r="C148">
-        <v>0.0576</v>
+        <v>0.0574</v>
       </c>
       <c r="D148">
-        <v>0.09180000000000001</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1463</v>
+        <v>0.1442</v>
       </c>
       <c r="C149">
-        <v>0.0563</v>
+        <v>0.0561</v>
       </c>
       <c r="D149">
-        <v>0.09</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.145</v>
+        <v>0.1429</v>
       </c>
       <c r="C150">
-        <v>0.0557</v>
+        <v>0.0554</v>
       </c>
       <c r="D150">
-        <v>0.08939999999999999</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1453</v>
+        <v>0.1432</v>
       </c>
       <c r="C151">
-        <v>0.0557</v>
+        <v>0.0554</v>
       </c>
       <c r="D151">
-        <v>0.0896</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1463</v>
+        <v>0.1442</v>
       </c>
       <c r="C152">
-        <v>0.0557</v>
+        <v>0.0555</v>
       </c>
       <c r="D152">
-        <v>0.0907</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1485</v>
+        <v>0.1464</v>
       </c>
       <c r="C153">
-        <v>0.0558</v>
+        <v>0.0556</v>
       </c>
       <c r="D153">
-        <v>0.0927</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1514</v>
+        <v>0.1493</v>
       </c>
       <c r="C154">
-        <v>0.0557</v>
+        <v>0.0555</v>
       </c>
       <c r="D154">
-        <v>0.09569999999999999</v>
+        <v>0.09379999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1545</v>
+        <v>0.1524</v>
       </c>
       <c r="C155">
-        <v>0.0552</v>
+        <v>0.055</v>
       </c>
       <c r="D155">
-        <v>0.0994</v>
+        <v>0.0974</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1585</v>
+        <v>0.1564</v>
       </c>
       <c r="C156">
-        <v>0.0548</v>
+        <v>0.0546</v>
       </c>
       <c r="D156">
-        <v>0.1037</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1631</v>
+        <v>0.161</v>
       </c>
       <c r="C157">
-        <v>0.0542</v>
+        <v>0.054</v>
       </c>
       <c r="D157">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1687</v>
+        <v>0.1666</v>
       </c>
       <c r="C158">
-        <v>0.0538</v>
+        <v>0.0536</v>
       </c>
       <c r="D158">
-        <v>0.1149</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1764</v>
+        <v>0.1743</v>
       </c>
       <c r="C159">
-        <v>0.0546</v>
+        <v>0.0544</v>
       </c>
       <c r="D159">
-        <v>0.1218</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1853</v>
+        <v>0.1832</v>
       </c>
       <c r="C160">
-        <v>0.0553</v>
+        <v>0.0551</v>
       </c>
       <c r="D160">
-        <v>0.1301</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1948</v>
+        <v>0.1926</v>
       </c>
       <c r="C161">
-        <v>0.056</v>
+        <v>0.0558</v>
       </c>
       <c r="D161">
-        <v>0.1388</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2048</v>
+        <v>0.2027</v>
       </c>
       <c r="C162">
-        <v>0.057</v>
+        <v>0.0569</v>
       </c>
       <c r="D162">
-        <v>0.1478</v>
+        <v>0.1458</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.215</v>
+        <v>0.2129</v>
       </c>
       <c r="C163">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="D163">
-        <v>0.1569</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2256</v>
+        <v>0.2235</v>
       </c>
       <c r="C164">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
       <c r="D164">
-        <v>0.1661</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2365</v>
+        <v>0.2344</v>
       </c>
       <c r="C165">
-        <v>0.0612</v>
+        <v>0.0611</v>
       </c>
       <c r="D165">
-        <v>0.1753</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2463</v>
+        <v>0.2443</v>
       </c>
       <c r="C166">
-        <v>0.0626</v>
+        <v>0.0625</v>
       </c>
       <c r="D166">
-        <v>0.1837</v>
+        <v>0.1818</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2554</v>
+        <v>0.2534</v>
       </c>
       <c r="C167">
-        <v>0.0638</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D167">
-        <v>0.1916</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="C168">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D168">
-        <v>0.1988</v>
+        <v>0.1969</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2713</v>
+        <v>0.2693</v>
       </c>
       <c r="C169">
-        <v>0.06619999999999999</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D169">
-        <v>0.205</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2763</v>
+        <v>0.2744</v>
       </c>
       <c r="C170">
-        <v>0.0664</v>
+        <v>0.0663</v>
       </c>
       <c r="D170">
-        <v>0.2099</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2803</v>
+        <v>0.2783</v>
       </c>
       <c r="C171">
-        <v>0.0664</v>
+        <v>0.0663</v>
       </c>
       <c r="D171">
-        <v>0.2139</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2836</v>
+        <v>0.2817</v>
       </c>
       <c r="C172">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="D172">
-        <v>0.2171</v>
+        <v>0.2153</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2857</v>
+        <v>0.2838</v>
       </c>
       <c r="C173">
-        <v>0.06610000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="D173">
-        <v>0.2196</v>
+        <v>0.2178</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2882</v>
+        <v>0.2863</v>
       </c>
       <c r="C174">
-        <v>0.06660000000000001</v>
+        <v>0.0665</v>
       </c>
       <c r="D174">
-        <v>0.2216</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.291</v>
+        <v>0.2891</v>
       </c>
       <c r="C175">
-        <v>0.0677</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D175">
-        <v>0.2233</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2942</v>
+        <v>0.2923</v>
       </c>
       <c r="C176">
-        <v>0.0693</v>
+        <v>0.0692</v>
       </c>
       <c r="D176">
-        <v>0.2249</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2972</v>
+        <v>0.2953</v>
       </c>
       <c r="C177">
-        <v>0.07099999999999999</v>
+        <v>0.0709</v>
       </c>
       <c r="D177">
-        <v>0.2261</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.3001</v>
+        <v>0.2982</v>
       </c>
       <c r="C178">
-        <v>0.0731</v>
+        <v>0.073</v>
       </c>
       <c r="D178">
-        <v>0.227</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3016</v>
+        <v>0.2998</v>
       </c>
       <c r="C179">
-        <v>0.0738</v>
+        <v>0.0737</v>
       </c>
       <c r="D179">
-        <v>0.2278</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3023</v>
+        <v>0.3004</v>
       </c>
       <c r="C180">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D180">
-        <v>0.2275</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.303</v>
+        <v>0.3011</v>
       </c>
       <c r="C181">
-        <v>0.07580000000000001</v>
+        <v>0.0757</v>
       </c>
       <c r="D181">
-        <v>0.2272</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3037</v>
+        <v>0.3018</v>
       </c>
       <c r="C182">
-        <v>0.0766</v>
+        <v>0.0765</v>
       </c>
       <c r="D182">
-        <v>0.2271</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.305</v>
+        <v>0.3032</v>
       </c>
       <c r="C183">
-        <v>0.0776</v>
+        <v>0.0775</v>
       </c>
       <c r="D183">
-        <v>0.2275</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3064</v>
+        <v>0.3045</v>
       </c>
       <c r="C184">
         <v>0.07820000000000001</v>
       </c>
       <c r="D184">
-        <v>0.2282</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3074</v>
+        <v>0.3056</v>
       </c>
       <c r="C185">
-        <v>0.07829999999999999</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="D185">
-        <v>0.2292</v>
+        <v>0.2274</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3091</v>
+        <v>0.3072</v>
       </c>
       <c r="C186">
-        <v>0.0784</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D186">
-        <v>0.2307</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3116</v>
+        <v>0.3097</v>
       </c>
       <c r="C187">
-        <v>0.0784</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D187">
-        <v>0.2332</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3137</v>
+        <v>0.3118</v>
       </c>
       <c r="C188">
-        <v>0.07779999999999999</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="D188">
-        <v>0.2359</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3162</v>
+        <v>0.3143</v>
       </c>
       <c r="C189">
-        <v>0.07729999999999999</v>
+        <v>0.0772</v>
       </c>
       <c r="D189">
-        <v>0.2389</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3197</v>
+        <v>0.3178</v>
       </c>
       <c r="C190">
-        <v>0.07729999999999999</v>
+        <v>0.0772</v>
       </c>
       <c r="D190">
-        <v>0.2424</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3236</v>
+        <v>0.3218</v>
       </c>
       <c r="C191">
         <v>0.0772</v>
       </c>
       <c r="D191">
-        <v>0.2464</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3282</v>
+        <v>0.3263</v>
       </c>
       <c r="C192">
-        <v>0.0772</v>
+        <v>0.0771</v>
       </c>
       <c r="D192">
-        <v>0.251</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3334</v>
+        <v>0.3315</v>
       </c>
       <c r="C193">
-        <v>0.0776</v>
+        <v>0.0775</v>
       </c>
       <c r="D193">
-        <v>0.2558</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3373</v>
+        <v>0.3354</v>
       </c>
       <c r="C194">
-        <v>0.077</v>
+        <v>0.0769</v>
       </c>
       <c r="D194">
-        <v>0.2603</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,13 +3866,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3408</v>
+        <v>0.339</v>
       </c>
       <c r="C195">
         <v>0.0762</v>
       </c>
       <c r="D195">
-        <v>0.2646</v>
+        <v>0.2628</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3436</v>
+        <v>0.3418</v>
       </c>
       <c r="C196">
-        <v>0.07489999999999999</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="D196">
-        <v>0.2687</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3463</v>
+        <v>0.3445</v>
       </c>
       <c r="C197">
         <v>0.0736</v>
       </c>
       <c r="D197">
-        <v>0.2727</v>
+        <v>0.2709</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.35</v>
+        <v>0.3482</v>
       </c>
       <c r="C198">
         <v>0.0725</v>
       </c>
       <c r="D198">
-        <v>0.2775</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3532</v>
+        <v>0.3513</v>
       </c>
       <c r="C199">
-        <v>0.07140000000000001</v>
+        <v>0.0713</v>
       </c>
       <c r="D199">
-        <v>0.2817</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3571</v>
+        <v>0.3552</v>
       </c>
       <c r="C200">
         <v>0.0709</v>
       </c>
       <c r="D200">
-        <v>0.2861</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3603</v>
+        <v>0.3585</v>
       </c>
       <c r="C201">
         <v>0.0699</v>
       </c>
       <c r="D201">
-        <v>0.2904</v>
+        <v>0.2887</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3634</v>
+        <v>0.3616</v>
       </c>
       <c r="C202">
-        <v>0.0689</v>
+        <v>0.0688</v>
       </c>
       <c r="D202">
-        <v>0.2945</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3656</v>
+        <v>0.3639</v>
       </c>
       <c r="C203">
         <v>0.0673</v>
       </c>
       <c r="D203">
-        <v>0.2983</v>
+        <v>0.2966</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3684</v>
+        <v>0.3666</v>
       </c>
       <c r="C204">
         <v>0.0663</v>
       </c>
       <c r="D204">
-        <v>0.302</v>
+        <v>0.3003</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3711</v>
+        <v>0.3694</v>
       </c>
       <c r="C205">
-        <v>0.0655</v>
+        <v>0.0654</v>
       </c>
       <c r="D205">
-        <v>0.3056</v>
+        <v>0.3039</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3735</v>
+        <v>0.3717</v>
       </c>
       <c r="C206">
-        <v>0.0646</v>
+        <v>0.0645</v>
       </c>
       <c r="D206">
-        <v>0.3089</v>
+        <v>0.3072</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3751</v>
+        <v>0.3734</v>
       </c>
       <c r="C207">
-        <v>0.06370000000000001</v>
+        <v>0.0636</v>
       </c>
       <c r="D207">
-        <v>0.3115</v>
+        <v>0.3098</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3775</v>
+        <v>0.3757</v>
       </c>
       <c r="C208">
-        <v>0.0636</v>
+        <v>0.0635</v>
       </c>
       <c r="D208">
-        <v>0.3138</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3795</v>
+        <v>0.3778</v>
       </c>
       <c r="C209">
         <v>0.0635</v>
       </c>
       <c r="D209">
-        <v>0.316</v>
+        <v>0.3144</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3816</v>
+        <v>0.3799</v>
       </c>
       <c r="C210">
         <v>0.0638</v>
       </c>
       <c r="D210">
-        <v>0.3178</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3828</v>
+        <v>0.3811</v>
       </c>
       <c r="C211">
         <v>0.0636</v>
       </c>
       <c r="D211">
-        <v>0.3191</v>
+        <v>0.3175</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3831</v>
+        <v>0.3814</v>
       </c>
       <c r="C212">
         <v>0.0633</v>
       </c>
       <c r="D212">
-        <v>0.3198</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3825</v>
+        <v>0.3809</v>
       </c>
       <c r="C213">
-        <v>0.06270000000000001</v>
+        <v>0.0626</v>
       </c>
       <c r="D213">
-        <v>0.3198</v>
+        <v>0.3182</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3823</v>
+        <v>0.3806</v>
       </c>
       <c r="C214">
-        <v>0.06270000000000001</v>
+        <v>0.0626</v>
       </c>
       <c r="D214">
-        <v>0.3196</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3822</v>
+        <v>0.3805</v>
       </c>
       <c r="C215">
-        <v>0.063</v>
+        <v>0.0629</v>
       </c>
       <c r="D215">
-        <v>0.3192</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3815</v>
+        <v>0.3798</v>
       </c>
       <c r="C216">
-        <v>0.0633</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D216">
-        <v>0.3182</v>
+        <v>0.3166</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3805</v>
+        <v>0.3788</v>
       </c>
       <c r="C217">
         <v>0.0638</v>
       </c>
       <c r="D217">
-        <v>0.3167</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3781</v>
+        <v>0.3765</v>
       </c>
       <c r="C218">
-        <v>0.0643</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="D218">
-        <v>0.3139</v>
+        <v>0.3122</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3788</v>
+        <v>0.3771</v>
       </c>
       <c r="C219">
-        <v>0.0649</v>
+        <v>0.0648</v>
       </c>
       <c r="D219">
-        <v>0.3139</v>
+        <v>0.3123</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3797</v>
+        <v>0.3779</v>
       </c>
       <c r="C220">
         <v>0.0654</v>
       </c>
       <c r="D220">
-        <v>0.3143</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3829</v>
+        <v>0.3811</v>
       </c>
       <c r="C221">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="D221">
-        <v>0.3164</v>
+        <v>0.3146</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3869</v>
+        <v>0.3851</v>
       </c>
       <c r="C222">
         <v>0.0677</v>
       </c>
       <c r="D222">
-        <v>0.3192</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3903</v>
+        <v>0.3885</v>
       </c>
       <c r="C223">
         <v>0.06900000000000001</v>
       </c>
       <c r="D223">
-        <v>0.3213</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3925</v>
+        <v>0.3906</v>
       </c>
       <c r="C224">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D224">
-        <v>0.3225</v>
+        <v>0.3208</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3942</v>
+        <v>0.3924</v>
       </c>
       <c r="C225">
-        <v>0.07099999999999999</v>
+        <v>0.0709</v>
       </c>
       <c r="D225">
-        <v>0.3232</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3955</v>
+        <v>0.3938</v>
       </c>
       <c r="C226">
-        <v>0.0723</v>
+        <v>0.0722</v>
       </c>
       <c r="D226">
-        <v>0.3233</v>
+        <v>0.3216</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3964</v>
+        <v>0.3948</v>
       </c>
       <c r="C227">
-        <v>0.07340000000000001</v>
+        <v>0.0733</v>
       </c>
       <c r="D227">
-        <v>0.323</v>
+        <v>0.3214</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.3962</v>
+        <v>0.3947</v>
       </c>
       <c r="C228">
-        <v>0.0737</v>
+        <v>0.0736</v>
       </c>
       <c r="D228">
-        <v>0.3225</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3959</v>
+        <v>0.3945</v>
       </c>
       <c r="C229">
-        <v>0.0741</v>
+        <v>0.074</v>
       </c>
       <c r="D229">
-        <v>0.3219</v>
+        <v>0.3205</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3953</v>
+        <v>0.3941</v>
       </c>
       <c r="C230">
         <v>0.0741</v>
       </c>
       <c r="D230">
-        <v>0.3212</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3953</v>
+        <v>0.3941</v>
       </c>
       <c r="C231">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D231">
-        <v>0.3206</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3952</v>
+        <v>0.3942</v>
       </c>
       <c r="C232">
-        <v>0.0752</v>
+        <v>0.0751</v>
       </c>
       <c r="D232">
-        <v>0.3201</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3955</v>
+        <v>0.3946</v>
       </c>
       <c r="C233">
         <v>0.0756</v>
       </c>
       <c r="D233">
-        <v>0.3198</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.3959</v>
+        <v>0.3952</v>
       </c>
       <c r="C234">
-        <v>0.0759</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="D234">
-        <v>0.32</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3963</v>
+        <v>0.3957</v>
       </c>
       <c r="C235">
         <v>0.0761</v>
       </c>
       <c r="D235">
-        <v>0.3202</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3972</v>
+        <v>0.3967</v>
       </c>
       <c r="C236">
-        <v>0.07630000000000001</v>
+        <v>0.0762</v>
       </c>
       <c r="D236">
-        <v>0.3209</v>
+        <v>0.3205</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.398</v>
+        <v>0.3976</v>
       </c>
       <c r="C237">
-        <v>0.0764</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D237">
-        <v>0.3217</v>
+        <v>0.3213</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3987</v>
+        <v>0.3984</v>
       </c>
       <c r="C238">
         <v>0.0762</v>
       </c>
       <c r="D238">
-        <v>0.3224</v>
+        <v>0.3222</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,7 +4482,7 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3958</v>
+        <v>0.3957</v>
       </c>
       <c r="C239">
         <v>0.07580000000000001</v>
@@ -4502,7 +4502,7 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="D240">
-        <v>0.3168</v>
+        <v>0.3169</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3863</v>
+        <v>0.3865</v>
       </c>
       <c r="C241">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D241">
-        <v>0.3116</v>
+        <v>0.3118</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3799</v>
+        <v>0.3802</v>
       </c>
       <c r="C242">
         <v>0.0742</v>
       </c>
       <c r="D242">
-        <v>0.3057</v>
+        <v>0.3061</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3752</v>
+        <v>0.3757</v>
       </c>
       <c r="C243">
         <v>0.07439999999999999</v>
       </c>
       <c r="D243">
-        <v>0.3008</v>
+        <v>0.3013</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4552,13 +4552,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3708</v>
+        <v>0.3713</v>
       </c>
       <c r="C244">
         <v>0.0745</v>
       </c>
       <c r="D244">
-        <v>0.2963</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3667</v>
+        <v>0.3672</v>
       </c>
       <c r="C245">
         <v>0.0746</v>
       </c>
       <c r="D245">
-        <v>0.292</v>
+        <v>0.2926</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3625</v>
+        <v>0.363</v>
       </c>
       <c r="C246">
         <v>0.07439999999999999</v>
       </c>
       <c r="D246">
-        <v>0.288</v>
+        <v>0.2886</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3586</v>
+        <v>0.3592</v>
       </c>
       <c r="C247">
         <v>0.07439999999999999</v>
       </c>
       <c r="D247">
-        <v>0.2842</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3549</v>
+        <v>0.3554</v>
       </c>
       <c r="C248">
         <v>0.0745</v>
       </c>
       <c r="D248">
-        <v>0.2804</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.351</v>
+        <v>0.3515</v>
       </c>
       <c r="C249">
         <v>0.0743</v>
       </c>
       <c r="D249">
-        <v>0.2767</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3476</v>
+        <v>0.348</v>
       </c>
       <c r="C250">
         <v>0.07439999999999999</v>
       </c>
       <c r="D250">
-        <v>0.2732</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.344</v>
+        <v>0.3444</v>
       </c>
       <c r="C251">
         <v>0.0743</v>
       </c>
       <c r="D251">
-        <v>0.2697</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3405</v>
+        <v>0.3408</v>
       </c>
       <c r="C252">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="D252">
-        <v>0.2663</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3377</v>
+        <v>0.3379</v>
       </c>
       <c r="C253">
         <v>0.0747</v>
       </c>
       <c r="D253">
-        <v>0.263</v>
+        <v>0.2633</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2016 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2016 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.3086</v>
+        <v>0.309</v>
       </c>
       <c r="C2">
         <v>0.075</v>
       </c>
       <c r="D2">
-        <v>0.2337</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3129</v>
+        <v>0.3134</v>
       </c>
       <c r="C3">
         <v>0.0764</v>
       </c>
       <c r="D3">
-        <v>0.2366</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3178</v>
+        <v>0.3182</v>
       </c>
       <c r="C4">
         <v>0.07770000000000001</v>
       </c>
       <c r="D4">
-        <v>0.2401</v>
+        <v>0.2405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3232</v>
+        <v>0.3236</v>
       </c>
       <c r="C5">
         <v>0.0794</v>
       </c>
       <c r="D5">
-        <v>0.2438</v>
+        <v>0.2442</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3294</v>
+        <v>0.3298</v>
       </c>
       <c r="C6">
         <v>0.08169999999999999</v>
       </c>
       <c r="D6">
-        <v>0.2477</v>
+        <v>0.2481</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3364</v>
+        <v>0.3368</v>
       </c>
       <c r="C7">
-        <v>0.08450000000000001</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="D7">
-        <v>0.2518</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3429</v>
+        <v>0.3434</v>
       </c>
       <c r="C8">
         <v>0.0871</v>
       </c>
       <c r="D8">
-        <v>0.2558</v>
+        <v>0.2562</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3482</v>
+        <v>0.3487</v>
       </c>
       <c r="C9">
         <v>0.08890000000000001</v>
       </c>
       <c r="D9">
-        <v>0.2594</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3528</v>
+        <v>0.3533</v>
       </c>
       <c r="C10">
         <v>0.08989999999999999</v>
       </c>
       <c r="D10">
-        <v>0.2629</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3579</v>
+        <v>0.3584</v>
       </c>
       <c r="C11">
         <v>0.0914</v>
       </c>
       <c r="D11">
-        <v>0.2665</v>
+        <v>0.2669</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3639</v>
+        <v>0.3644</v>
       </c>
       <c r="C12">
         <v>0.09370000000000001</v>
       </c>
       <c r="D12">
-        <v>0.2702</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3691</v>
+        <v>0.3695</v>
       </c>
       <c r="C13">
         <v>0.0951</v>
       </c>
       <c r="D13">
-        <v>0.2739</v>
+        <v>0.2744</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3745</v>
+        <v>0.375</v>
       </c>
       <c r="C14">
         <v>0.09669999999999999</v>
       </c>
       <c r="D14">
-        <v>0.2778</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.3775</v>
+        <v>0.378</v>
       </c>
       <c r="C15">
-        <v>0.0964</v>
+        <v>0.0965</v>
       </c>
       <c r="D15">
-        <v>0.2811</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3804</v>
+        <v>0.3809</v>
       </c>
       <c r="C16">
         <v>0.0964</v>
       </c>
       <c r="D16">
-        <v>0.284</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3836</v>
+        <v>0.3841</v>
       </c>
       <c r="C17">
         <v>0.09660000000000001</v>
       </c>
       <c r="D17">
-        <v>0.287</v>
+        <v>0.2875</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3859</v>
+        <v>0.3864</v>
       </c>
       <c r="C18">
         <v>0.096</v>
       </c>
       <c r="D18">
-        <v>0.2899</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.3875</v>
+        <v>0.388</v>
       </c>
       <c r="C19">
         <v>0.0954</v>
       </c>
       <c r="D19">
-        <v>0.2922</v>
+        <v>0.2927</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3887</v>
+        <v>0.3892</v>
       </c>
       <c r="C20">
         <v>0.0944</v>
       </c>
       <c r="D20">
-        <v>0.2943</v>
+        <v>0.2948</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3914</v>
+        <v>0.3919</v>
       </c>
       <c r="C21">
         <v>0.09429999999999999</v>
       </c>
       <c r="D21">
-        <v>0.2971</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3933</v>
+        <v>0.3938</v>
       </c>
       <c r="C22">
         <v>0.094</v>
       </c>
       <c r="D22">
-        <v>0.2993</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3937</v>
+        <v>0.3942</v>
       </c>
       <c r="C23">
-        <v>0.0929</v>
+        <v>0.093</v>
       </c>
       <c r="D23">
-        <v>0.3008</v>
+        <v>0.3013</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3937</v>
+        <v>0.3942</v>
       </c>
       <c r="C24">
         <v>0.0919</v>
       </c>
       <c r="D24">
-        <v>0.3018</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.393</v>
+        <v>0.3935</v>
       </c>
       <c r="C25">
-        <v>0.0905</v>
+        <v>0.0906</v>
       </c>
       <c r="D25">
-        <v>0.3025</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3925</v>
+        <v>0.393</v>
       </c>
       <c r="C26">
         <v>0.0896</v>
       </c>
       <c r="D26">
-        <v>0.3029</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3911</v>
+        <v>0.3916</v>
       </c>
       <c r="C27">
         <v>0.0881</v>
       </c>
       <c r="D27">
-        <v>0.303</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3903</v>
+        <v>0.3908</v>
       </c>
       <c r="C28">
-        <v>0.08740000000000001</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D28">
-        <v>0.3029</v>
+        <v>0.3033</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.39</v>
+        <v>0.3904</v>
       </c>
       <c r="C29">
         <v>0.0871</v>
       </c>
       <c r="D29">
-        <v>0.3029</v>
+        <v>0.3033</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3906</v>
+        <v>0.3911</v>
       </c>
       <c r="C30">
         <v>0.0877</v>
       </c>
       <c r="D30">
-        <v>0.3029</v>
+        <v>0.3033</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3898</v>
+        <v>0.3902</v>
       </c>
       <c r="C31">
-        <v>0.08699999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="D31">
-        <v>0.3027</v>
+        <v>0.3031</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3886</v>
+        <v>0.3891</v>
       </c>
       <c r="C32">
         <v>0.0864</v>
       </c>
       <c r="D32">
-        <v>0.3023</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3874</v>
+        <v>0.3878</v>
       </c>
       <c r="C33">
         <v>0.0859</v>
       </c>
       <c r="D33">
-        <v>0.3015</v>
+        <v>0.3019</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3858</v>
+        <v>0.3862</v>
       </c>
       <c r="C34">
         <v>0.0858</v>
       </c>
       <c r="D34">
-        <v>0.3</v>
+        <v>0.3004</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3849</v>
+        <v>0.3853</v>
       </c>
       <c r="C35">
         <v>0.0862</v>
       </c>
       <c r="D35">
-        <v>0.2987</v>
+        <v>0.2991</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3841</v>
+        <v>0.3846</v>
       </c>
       <c r="C36">
         <v>0.0866</v>
       </c>
       <c r="D36">
-        <v>0.2975</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3829</v>
+        <v>0.3833</v>
       </c>
       <c r="C37">
         <v>0.0868</v>
       </c>
       <c r="D37">
-        <v>0.2961</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3832</v>
+        <v>0.3836</v>
       </c>
       <c r="C38">
-        <v>0.0881</v>
+        <v>0.0882</v>
       </c>
       <c r="D38">
-        <v>0.2951</v>
+        <v>0.2955</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3842</v>
+        <v>0.3846</v>
       </c>
       <c r="C39">
-        <v>0.0896</v>
+        <v>0.0897</v>
       </c>
       <c r="D39">
-        <v>0.2946</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3852</v>
+        <v>0.3857</v>
       </c>
       <c r="C40">
         <v>0.0912</v>
       </c>
       <c r="D40">
-        <v>0.2941</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3855</v>
+        <v>0.3859</v>
       </c>
       <c r="C41">
-        <v>0.0929</v>
+        <v>0.093</v>
       </c>
       <c r="D41">
-        <v>0.2926</v>
+        <v>0.2929</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3863</v>
+        <v>0.3867</v>
       </c>
       <c r="C42">
-        <v>0.095</v>
+        <v>0.0951</v>
       </c>
       <c r="D42">
-        <v>0.2913</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3877</v>
+        <v>0.3881</v>
       </c>
       <c r="C43">
-        <v>0.0973</v>
+        <v>0.0974</v>
       </c>
       <c r="D43">
-        <v>0.2904</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3881</v>
+        <v>0.3885</v>
       </c>
       <c r="C44">
         <v>0.0987</v>
       </c>
       <c r="D44">
-        <v>0.2895</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3889</v>
+        <v>0.3893</v>
       </c>
       <c r="C45">
         <v>0.1002</v>
       </c>
       <c r="D45">
-        <v>0.2887</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.389</v>
+        <v>0.3894</v>
       </c>
       <c r="C46">
-        <v>0.101</v>
+        <v>0.1011</v>
       </c>
       <c r="D46">
-        <v>0.288</v>
+        <v>0.2884</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3892</v>
+        <v>0.3896</v>
       </c>
       <c r="C47">
         <v>0.1017</v>
       </c>
       <c r="D47">
-        <v>0.2875</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3884</v>
+        <v>0.3888</v>
       </c>
       <c r="C48">
-        <v>0.1014</v>
+        <v>0.1015</v>
       </c>
       <c r="D48">
-        <v>0.287</v>
+        <v>0.2874</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3877</v>
+        <v>0.3881</v>
       </c>
       <c r="C49">
-        <v>0.1013</v>
+        <v>0.1014</v>
       </c>
       <c r="D49">
-        <v>0.2863</v>
+        <v>0.2867</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3864</v>
+        <v>0.3868</v>
       </c>
       <c r="C50">
         <v>0.1009</v>
       </c>
       <c r="D50">
-        <v>0.2855</v>
+        <v>0.2859</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3869</v>
+        <v>0.3873</v>
       </c>
       <c r="C51">
         <v>0.1021</v>
       </c>
       <c r="D51">
-        <v>0.2849</v>
+        <v>0.2852</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3864</v>
+        <v>0.3868</v>
       </c>
       <c r="C52">
-        <v>0.1024</v>
+        <v>0.1025</v>
       </c>
       <c r="D52">
-        <v>0.284</v>
+        <v>0.2843</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3865</v>
+        <v>0.3869</v>
       </c>
       <c r="C53">
-        <v>0.1028</v>
+        <v>0.1029</v>
       </c>
       <c r="D53">
-        <v>0.2837</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3865</v>
+        <v>0.3869</v>
       </c>
       <c r="C54">
-        <v>0.1029</v>
+        <v>0.103</v>
       </c>
       <c r="D54">
-        <v>0.2836</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3867</v>
+        <v>0.3872</v>
       </c>
       <c r="C55">
-        <v>0.1029</v>
+        <v>0.103</v>
       </c>
       <c r="D55">
-        <v>0.2838</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3888</v>
+        <v>0.3892</v>
       </c>
       <c r="C56">
-        <v>0.1048</v>
+        <v>0.1049</v>
       </c>
       <c r="D56">
-        <v>0.284</v>
+        <v>0.2844</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.391</v>
+        <v>0.3915</v>
       </c>
       <c r="C57">
         <v>0.1068</v>
       </c>
       <c r="D57">
-        <v>0.2843</v>
+        <v>0.2847</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3917</v>
+        <v>0.3922</v>
       </c>
       <c r="C58">
-        <v>0.1076</v>
+        <v>0.1077</v>
       </c>
       <c r="D58">
-        <v>0.2842</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3918</v>
+        <v>0.3923</v>
       </c>
       <c r="C59">
         <v>0.1083</v>
       </c>
       <c r="D59">
-        <v>0.2836</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3912</v>
+        <v>0.3917</v>
       </c>
       <c r="C60">
-        <v>0.1086</v>
+        <v>0.1087</v>
       </c>
       <c r="D60">
-        <v>0.2826</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3897</v>
+        <v>0.3902</v>
       </c>
       <c r="C61">
-        <v>0.1085</v>
+        <v>0.1086</v>
       </c>
       <c r="D61">
-        <v>0.2812</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.388</v>
+        <v>0.3885</v>
       </c>
       <c r="C62">
-        <v>0.1082</v>
+        <v>0.1083</v>
       </c>
       <c r="D62">
-        <v>0.2798</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3858</v>
+        <v>0.3863</v>
       </c>
       <c r="C63">
-        <v>0.1075</v>
+        <v>0.1076</v>
       </c>
       <c r="D63">
-        <v>0.2783</v>
+        <v>0.2788</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3846</v>
+        <v>0.3851</v>
       </c>
       <c r="C64">
         <v>0.1077</v>
       </c>
       <c r="D64">
-        <v>0.2769</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3829</v>
+        <v>0.3834</v>
       </c>
       <c r="C65">
-        <v>0.1075</v>
+        <v>0.1076</v>
       </c>
       <c r="D65">
-        <v>0.2753</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3804</v>
+        <v>0.3809</v>
       </c>
       <c r="C66">
         <v>0.1069</v>
       </c>
       <c r="D66">
-        <v>0.2735</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3773</v>
+        <v>0.3779</v>
       </c>
       <c r="C67">
-        <v>0.1057</v>
+        <v>0.1058</v>
       </c>
       <c r="D67">
-        <v>0.2716</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3742</v>
+        <v>0.3747</v>
       </c>
       <c r="C68">
-        <v>0.1045</v>
+        <v>0.1046</v>
       </c>
       <c r="D68">
-        <v>0.2697</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.371</v>
+        <v>0.3716</v>
       </c>
       <c r="C69">
-        <v>0.1029</v>
+        <v>0.103</v>
       </c>
       <c r="D69">
-        <v>0.2681</v>
+        <v>0.2686</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.3684</v>
+        <v>0.369</v>
       </c>
       <c r="C70">
-        <v>0.1015</v>
+        <v>0.1016</v>
       </c>
       <c r="D70">
-        <v>0.2669</v>
+        <v>0.2674</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3651</v>
+        <v>0.3658</v>
       </c>
       <c r="C71">
-        <v>0.0993</v>
+        <v>0.0994</v>
       </c>
       <c r="D71">
-        <v>0.2659</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.363</v>
+        <v>0.3636</v>
       </c>
       <c r="C72">
-        <v>0.0977</v>
+        <v>0.0978</v>
       </c>
       <c r="D72">
-        <v>0.2653</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3615</v>
+        <v>0.3621</v>
       </c>
       <c r="C73">
-        <v>0.0968</v>
+        <v>0.0969</v>
       </c>
       <c r="D73">
-        <v>0.2647</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3598</v>
+        <v>0.3605</v>
       </c>
       <c r="C74">
-        <v>0.09569999999999999</v>
+        <v>0.0958</v>
       </c>
       <c r="D74">
-        <v>0.2641</v>
+        <v>0.2647</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3577</v>
+        <v>0.3584</v>
       </c>
       <c r="C75">
-        <v>0.0945</v>
+        <v>0.0946</v>
       </c>
       <c r="D75">
-        <v>0.2632</v>
+        <v>0.2638</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3539</v>
+        <v>0.3545</v>
       </c>
       <c r="C76">
-        <v>0.0915</v>
+        <v>0.0916</v>
       </c>
       <c r="D76">
-        <v>0.2624</v>
+        <v>0.2629</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3497</v>
+        <v>0.3504</v>
       </c>
       <c r="C77">
-        <v>0.08840000000000001</v>
+        <v>0.0886</v>
       </c>
       <c r="D77">
-        <v>0.2613</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3458</v>
+        <v>0.3465</v>
       </c>
       <c r="C78">
-        <v>0.0857</v>
+        <v>0.0858</v>
       </c>
       <c r="D78">
-        <v>0.2601</v>
+        <v>0.2606</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3417</v>
+        <v>0.3424</v>
       </c>
       <c r="C79">
-        <v>0.08260000000000001</v>
+        <v>0.0828</v>
       </c>
       <c r="D79">
-        <v>0.2591</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3382</v>
+        <v>0.3389</v>
       </c>
       <c r="C80">
-        <v>0.07969999999999999</v>
+        <v>0.0799</v>
       </c>
       <c r="D80">
-        <v>0.2585</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3351</v>
+        <v>0.3358</v>
       </c>
       <c r="C81">
-        <v>0.0766</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="D81">
-        <v>0.2584</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3319</v>
+        <v>0.3326</v>
       </c>
       <c r="C82">
-        <v>0.0736</v>
+        <v>0.0737</v>
       </c>
       <c r="D82">
-        <v>0.2583</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3291</v>
+        <v>0.3298</v>
       </c>
       <c r="C83">
-        <v>0.07099999999999999</v>
+        <v>0.0711</v>
       </c>
       <c r="D83">
-        <v>0.2581</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3258</v>
+        <v>0.3265</v>
       </c>
       <c r="C84">
-        <v>0.068</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="D84">
-        <v>0.2578</v>
+        <v>0.2584</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3236</v>
+        <v>0.3243</v>
       </c>
       <c r="C85">
-        <v>0.0658</v>
+        <v>0.066</v>
       </c>
       <c r="D85">
-        <v>0.2578</v>
+        <v>0.2583</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3215</v>
+        <v>0.3221</v>
       </c>
       <c r="C86">
-        <v>0.0638</v>
+        <v>0.064</v>
       </c>
       <c r="D86">
-        <v>0.2576</v>
+        <v>0.2581</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3196</v>
+        <v>0.3202</v>
       </c>
       <c r="C87">
-        <v>0.0623</v>
+        <v>0.0624</v>
       </c>
       <c r="D87">
-        <v>0.2573</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3177</v>
+        <v>0.3184</v>
       </c>
       <c r="C88">
-        <v>0.0609</v>
+        <v>0.0611</v>
       </c>
       <c r="D88">
-        <v>0.2568</v>
+        <v>0.2573</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3157</v>
+        <v>0.3163</v>
       </c>
       <c r="C89">
-        <v>0.0602</v>
+        <v>0.0603</v>
       </c>
       <c r="D89">
-        <v>0.2555</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3121</v>
+        <v>0.3127</v>
       </c>
       <c r="C90">
-        <v>0.0589</v>
+        <v>0.059</v>
       </c>
       <c r="D90">
-        <v>0.2532</v>
+        <v>0.2537</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3083</v>
+        <v>0.3089</v>
       </c>
       <c r="C91">
-        <v>0.0579</v>
+        <v>0.058</v>
       </c>
       <c r="D91">
-        <v>0.2503</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3043</v>
+        <v>0.3048</v>
       </c>
       <c r="C92">
-        <v>0.0573</v>
+        <v>0.0574</v>
       </c>
       <c r="D92">
-        <v>0.2469</v>
+        <v>0.2474</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2992</v>
+        <v>0.2998</v>
       </c>
       <c r="C93">
-        <v>0.0562</v>
+        <v>0.0563</v>
       </c>
       <c r="D93">
-        <v>0.243</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2946</v>
+        <v>0.2952</v>
       </c>
       <c r="C94">
-        <v>0.0559</v>
+        <v>0.056</v>
       </c>
       <c r="D94">
-        <v>0.2388</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2901</v>
+        <v>0.2906</v>
       </c>
       <c r="C95">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="D95">
-        <v>0.2345</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2858</v>
+        <v>0.2863</v>
       </c>
       <c r="C96">
-        <v>0.0554</v>
+        <v>0.0555</v>
       </c>
       <c r="D96">
-        <v>0.2303</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2811</v>
+        <v>0.2815</v>
       </c>
       <c r="C97">
-        <v>0.0551</v>
+        <v>0.0552</v>
       </c>
       <c r="D97">
-        <v>0.226</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2767</v>
+        <v>0.2772</v>
       </c>
       <c r="C98">
-        <v>0.0551</v>
+        <v>0.0552</v>
       </c>
       <c r="D98">
-        <v>0.2216</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2723</v>
+        <v>0.2728</v>
       </c>
       <c r="C99">
         <v>0.0556</v>
       </c>
       <c r="D99">
-        <v>0.2167</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.268</v>
+        <v>0.2685</v>
       </c>
       <c r="C100">
         <v>0.0566</v>
       </c>
       <c r="D100">
-        <v>0.2115</v>
+        <v>0.2119</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2637</v>
+        <v>0.2641</v>
       </c>
       <c r="C101">
         <v>0.0579</v>
       </c>
       <c r="D101">
-        <v>0.2058</v>
+        <v>0.2062</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2593</v>
+        <v>0.2598</v>
       </c>
       <c r="C102">
-        <v>0.0591</v>
+        <v>0.0592</v>
       </c>
       <c r="D102">
-        <v>0.2002</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2541</v>
+        <v>0.2546</v>
       </c>
       <c r="C103">
-        <v>0.0597</v>
+        <v>0.0598</v>
       </c>
       <c r="D103">
-        <v>0.1944</v>
+        <v>0.1948</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2494</v>
+        <v>0.2498</v>
       </c>
       <c r="C104">
-        <v>0.0606</v>
+        <v>0.0607</v>
       </c>
       <c r="D104">
-        <v>0.1888</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2445</v>
+        <v>0.2449</v>
       </c>
       <c r="C105">
-        <v>0.0611</v>
+        <v>0.0612</v>
       </c>
       <c r="D105">
-        <v>0.1833</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2399</v>
+        <v>0.2403</v>
       </c>
       <c r="C106">
         <v>0.0616</v>
       </c>
       <c r="D106">
-        <v>0.1783</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2366</v>
+        <v>0.237</v>
       </c>
       <c r="C107">
         <v>0.06270000000000001</v>
       </c>
       <c r="D107">
-        <v>0.174</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.234</v>
+        <v>0.2345</v>
       </c>
       <c r="C108">
-        <v>0.06370000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="D108">
-        <v>0.1703</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2323</v>
+        <v>0.2327</v>
       </c>
       <c r="C109">
-        <v>0.0646</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D109">
-        <v>0.1677</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2322</v>
+        <v>0.2326</v>
       </c>
       <c r="C110">
         <v>0.0659</v>
       </c>
       <c r="D110">
-        <v>0.1664</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2331</v>
+        <v>0.2335</v>
       </c>
       <c r="C111">
-        <v>0.06710000000000001</v>
+        <v>0.0672</v>
       </c>
       <c r="D111">
-        <v>0.1659</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2335</v>
+        <v>0.2339</v>
       </c>
       <c r="C112">
         <v>0.06759999999999999</v>
       </c>
       <c r="D112">
-        <v>0.1659</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2341</v>
+        <v>0.2345</v>
       </c>
       <c r="C113">
         <v>0.0679</v>
       </c>
       <c r="D113">
-        <v>0.1662</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2346</v>
+        <v>0.235</v>
       </c>
       <c r="C114">
         <v>0.068</v>
       </c>
       <c r="D114">
-        <v>0.1666</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2356</v>
+        <v>0.236</v>
       </c>
       <c r="C115">
         <v>0.06859999999999999</v>
       </c>
       <c r="D115">
-        <v>0.167</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2359</v>
+        <v>0.2364</v>
       </c>
       <c r="C116">
-        <v>0.0689</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D116">
-        <v>0.167</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2362</v>
+        <v>0.2367</v>
       </c>
       <c r="C117">
-        <v>0.0693</v>
+        <v>0.0694</v>
       </c>
       <c r="D117">
-        <v>0.1669</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2365</v>
+        <v>0.2369</v>
       </c>
       <c r="C118">
-        <v>0.0697</v>
+        <v>0.0698</v>
       </c>
       <c r="D118">
-        <v>0.1668</v>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2365</v>
+        <v>0.2369</v>
       </c>
       <c r="C119">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
       <c r="D119">
-        <v>0.1667</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.236</v>
+        <v>0.2364</v>
       </c>
       <c r="C120">
-        <v>0.06950000000000001</v>
+        <v>0.0696</v>
       </c>
       <c r="D120">
-        <v>0.1665</v>
+        <v>0.1668</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2355</v>
+        <v>0.236</v>
       </c>
       <c r="C121">
         <v>0.0693</v>
       </c>
       <c r="D121">
-        <v>0.1662</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2353</v>
+        <v>0.2358</v>
       </c>
       <c r="C122">
-        <v>0.0694</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="D122">
-        <v>0.1659</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2352</v>
+        <v>0.2356</v>
       </c>
       <c r="C123">
         <v>0.0698</v>
       </c>
       <c r="D123">
-        <v>0.1654</v>
+        <v>0.1658</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.234</v>
+        <v>0.2345</v>
       </c>
       <c r="C124">
-        <v>0.0697</v>
+        <v>0.0698</v>
       </c>
       <c r="D124">
-        <v>0.1643</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2327</v>
+        <v>0.2332</v>
       </c>
       <c r="C125">
         <v>0.0696</v>
       </c>
       <c r="D125">
-        <v>0.1632</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2327</v>
+        <v>0.2331</v>
       </c>
       <c r="C126">
         <v>0.07049999999999999</v>
       </c>
       <c r="D126">
-        <v>0.1622</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2325</v>
+        <v>0.2329</v>
       </c>
       <c r="C127">
-        <v>0.07149999999999999</v>
+        <v>0.0716</v>
       </c>
       <c r="D127">
-        <v>0.1609</v>
+        <v>0.1613</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.2319</v>
+        <v>0.2323</v>
       </c>
       <c r="C128">
-        <v>0.0723</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D128">
-        <v>0.1596</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.2306</v>
+        <v>0.231</v>
       </c>
       <c r="C129">
         <v>0.07290000000000001</v>
       </c>
       <c r="D129">
-        <v>0.1577</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.228</v>
+        <v>0.2284</v>
       </c>
       <c r="C130">
         <v>0.073</v>
       </c>
       <c r="D130">
-        <v>0.155</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.2243</v>
+        <v>0.2247</v>
       </c>
       <c r="C131">
-        <v>0.0726</v>
+        <v>0.0727</v>
       </c>
       <c r="D131">
-        <v>0.1517</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2203</v>
+        <v>0.2208</v>
       </c>
       <c r="C132">
-        <v>0.0723</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D132">
-        <v>0.148</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2164</v>
+        <v>0.2168</v>
       </c>
       <c r="C133">
-        <v>0.07240000000000001</v>
+        <v>0.0725</v>
       </c>
       <c r="D133">
-        <v>0.144</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2122</v>
+        <v>0.2126</v>
       </c>
       <c r="C134">
         <v>0.0723</v>
       </c>
       <c r="D134">
-        <v>0.1399</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.2077</v>
+        <v>0.2081</v>
       </c>
       <c r="C135">
-        <v>0.07190000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D135">
-        <v>0.1358</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2035</v>
+        <v>0.2039</v>
       </c>
       <c r="C136">
         <v>0.0716</v>
       </c>
       <c r="D136">
-        <v>0.1319</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1992</v>
+        <v>0.1996</v>
       </c>
       <c r="C137">
-        <v>0.0711</v>
+        <v>0.0712</v>
       </c>
       <c r="D137">
-        <v>0.1281</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1947</v>
+        <v>0.1951</v>
       </c>
       <c r="C138">
-        <v>0.0703</v>
+        <v>0.0704</v>
       </c>
       <c r="D138">
-        <v>0.1244</v>
+        <v>0.1247</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1904</v>
+        <v>0.1908</v>
       </c>
       <c r="C139">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
       <c r="D139">
-        <v>0.1206</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1856</v>
+        <v>0.186</v>
       </c>
       <c r="C140">
-        <v>0.0689</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D140">
-        <v>0.1167</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1807</v>
+        <v>0.1811</v>
       </c>
       <c r="C141">
         <v>0.0679</v>
       </c>
       <c r="D141">
-        <v>0.1128</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1753</v>
+        <v>0.1758</v>
       </c>
       <c r="C142">
-        <v>0.0664</v>
+        <v>0.0665</v>
       </c>
       <c r="D142">
-        <v>0.1089</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1706</v>
+        <v>0.171</v>
       </c>
       <c r="C143">
-        <v>0.0653</v>
+        <v>0.0654</v>
       </c>
       <c r="D143">
-        <v>0.1053</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1665</v>
+        <v>0.167</v>
       </c>
       <c r="C144">
-        <v>0.0645</v>
+        <v>0.0646</v>
       </c>
       <c r="D144">
-        <v>0.102</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1617</v>
+        <v>0.1622</v>
       </c>
       <c r="C145">
-        <v>0.0631</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="D145">
-        <v>0.09859999999999999</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1566</v>
+        <v>0.1571</v>
       </c>
       <c r="C146">
-        <v>0.0612</v>
+        <v>0.0613</v>
       </c>
       <c r="D146">
-        <v>0.0954</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1516</v>
+        <v>0.1521</v>
       </c>
       <c r="C147">
-        <v>0.0591</v>
+        <v>0.0592</v>
       </c>
       <c r="D147">
-        <v>0.0925</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1473</v>
+        <v>0.1478</v>
       </c>
       <c r="C148">
-        <v>0.0574</v>
+        <v>0.0575</v>
       </c>
       <c r="D148">
-        <v>0.08989999999999999</v>
+        <v>0.09030000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1442</v>
+        <v>0.1447</v>
       </c>
       <c r="C149">
-        <v>0.0561</v>
+        <v>0.0562</v>
       </c>
       <c r="D149">
-        <v>0.0881</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1429</v>
+        <v>0.1434</v>
       </c>
       <c r="C150">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="D150">
-        <v>0.08749999999999999</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1432</v>
+        <v>0.1437</v>
       </c>
       <c r="C151">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="D151">
-        <v>0.0877</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1442</v>
+        <v>0.1447</v>
       </c>
       <c r="C152">
-        <v>0.0555</v>
+        <v>0.0556</v>
       </c>
       <c r="D152">
-        <v>0.0888</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1464</v>
+        <v>0.1469</v>
       </c>
       <c r="C153">
-        <v>0.0556</v>
+        <v>0.0558</v>
       </c>
       <c r="D153">
-        <v>0.09080000000000001</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1493</v>
+        <v>0.1498</v>
       </c>
       <c r="C154">
-        <v>0.0555</v>
+        <v>0.0556</v>
       </c>
       <c r="D154">
-        <v>0.09379999999999999</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1524</v>
+        <v>0.1529</v>
       </c>
       <c r="C155">
-        <v>0.055</v>
+        <v>0.0551</v>
       </c>
       <c r="D155">
-        <v>0.0974</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1564</v>
+        <v>0.1569</v>
       </c>
       <c r="C156">
-        <v>0.0546</v>
+        <v>0.0547</v>
       </c>
       <c r="D156">
-        <v>0.1018</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.161</v>
+        <v>0.1615</v>
       </c>
       <c r="C157">
-        <v>0.054</v>
+        <v>0.0541</v>
       </c>
       <c r="D157">
-        <v>0.107</v>
+        <v>0.1074</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1666</v>
+        <v>0.1671</v>
       </c>
       <c r="C158">
-        <v>0.0536</v>
+        <v>0.0537</v>
       </c>
       <c r="D158">
-        <v>0.113</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1743</v>
+        <v>0.1748</v>
       </c>
       <c r="C159">
-        <v>0.0544</v>
+        <v>0.0546</v>
       </c>
       <c r="D159">
-        <v>0.1198</v>
+        <v>0.1202</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1832</v>
+        <v>0.1837</v>
       </c>
       <c r="C160">
-        <v>0.0551</v>
+        <v>0.0552</v>
       </c>
       <c r="D160">
-        <v>0.1281</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1926</v>
+        <v>0.1931</v>
       </c>
       <c r="C161">
-        <v>0.0558</v>
+        <v>0.0559</v>
       </c>
       <c r="D161">
-        <v>0.1368</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2027</v>
+        <v>0.2031</v>
       </c>
       <c r="C162">
-        <v>0.0569</v>
+        <v>0.057</v>
       </c>
       <c r="D162">
-        <v>0.1458</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2129</v>
+        <v>0.2134</v>
       </c>
       <c r="C163">
-        <v>0.058</v>
+        <v>0.0581</v>
       </c>
       <c r="D163">
-        <v>0.155</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.2235</v>
+        <v>0.224</v>
       </c>
       <c r="C164">
-        <v>0.0594</v>
+        <v>0.0595</v>
       </c>
       <c r="D164">
-        <v>0.1641</v>
+        <v>0.1645</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2344</v>
+        <v>0.2349</v>
       </c>
       <c r="C165">
-        <v>0.0611</v>
+        <v>0.0612</v>
       </c>
       <c r="D165">
-        <v>0.1733</v>
+        <v>0.1737</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2443</v>
+        <v>0.2447</v>
       </c>
       <c r="C166">
-        <v>0.0625</v>
+        <v>0.0626</v>
       </c>
       <c r="D166">
-        <v>0.1818</v>
+        <v>0.1822</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2534</v>
+        <v>0.2538</v>
       </c>
       <c r="C167">
-        <v>0.06370000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="D167">
-        <v>0.1897</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.262</v>
+        <v>0.2624</v>
       </c>
       <c r="C168">
-        <v>0.06510000000000001</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D168">
-        <v>0.1969</v>
+        <v>0.1973</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2693</v>
+        <v>0.2697</v>
       </c>
       <c r="C169">
-        <v>0.06610000000000001</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="D169">
-        <v>0.2031</v>
+        <v>0.2035</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2744</v>
+        <v>0.2748</v>
       </c>
       <c r="C170">
-        <v>0.0663</v>
+        <v>0.0664</v>
       </c>
       <c r="D170">
-        <v>0.208</v>
+        <v>0.2084</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2783</v>
+        <v>0.2788</v>
       </c>
       <c r="C171">
-        <v>0.0663</v>
+        <v>0.0664</v>
       </c>
       <c r="D171">
-        <v>0.212</v>
+        <v>0.2124</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2817</v>
+        <v>0.2821</v>
       </c>
       <c r="C172">
-        <v>0.0664</v>
+        <v>0.0665</v>
       </c>
       <c r="D172">
-        <v>0.2153</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2838</v>
+        <v>0.2842</v>
       </c>
       <c r="C173">
-        <v>0.066</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D173">
-        <v>0.2178</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2863</v>
+        <v>0.2867</v>
       </c>
       <c r="C174">
-        <v>0.0665</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D174">
-        <v>0.2197</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2891</v>
+        <v>0.2895</v>
       </c>
       <c r="C175">
-        <v>0.06759999999999999</v>
+        <v>0.0677</v>
       </c>
       <c r="D175">
-        <v>0.2215</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2923</v>
+        <v>0.2927</v>
       </c>
       <c r="C176">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
       <c r="D176">
-        <v>0.2231</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2953</v>
+        <v>0.2957</v>
       </c>
       <c r="C177">
-        <v>0.0709</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D177">
-        <v>0.2243</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2982</v>
+        <v>0.2986</v>
       </c>
       <c r="C178">
         <v>0.073</v>
       </c>
       <c r="D178">
-        <v>0.2252</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2998</v>
+        <v>0.3002</v>
       </c>
       <c r="C179">
-        <v>0.0737</v>
+        <v>0.0738</v>
       </c>
       <c r="D179">
-        <v>0.226</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3004</v>
+        <v>0.3008</v>
       </c>
       <c r="C180">
-        <v>0.0746</v>
+        <v>0.0747</v>
       </c>
       <c r="D180">
-        <v>0.2258</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3011</v>
+        <v>0.3015</v>
       </c>
       <c r="C181">
         <v>0.0757</v>
       </c>
       <c r="D181">
-        <v>0.2254</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3018</v>
+        <v>0.3022</v>
       </c>
       <c r="C182">
         <v>0.0765</v>
       </c>
       <c r="D182">
-        <v>0.2253</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3032</v>
+        <v>0.3036</v>
       </c>
       <c r="C183">
         <v>0.0775</v>
       </c>
       <c r="D183">
-        <v>0.2257</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3045</v>
+        <v>0.3049</v>
       </c>
       <c r="C184">
         <v>0.07820000000000001</v>
       </c>
       <c r="D184">
-        <v>0.2264</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.3056</v>
+        <v>0.306</v>
       </c>
       <c r="C185">
         <v>0.07820000000000001</v>
       </c>
       <c r="D185">
-        <v>0.2274</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3072</v>
+        <v>0.3077</v>
       </c>
       <c r="C186">
         <v>0.07829999999999999</v>
       </c>
       <c r="D186">
-        <v>0.229</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3097</v>
+        <v>0.3101</v>
       </c>
       <c r="C187">
-        <v>0.07829999999999999</v>
+        <v>0.0784</v>
       </c>
       <c r="D187">
-        <v>0.2314</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3118</v>
+        <v>0.3122</v>
       </c>
       <c r="C188">
-        <v>0.07770000000000001</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="D188">
-        <v>0.2341</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3143</v>
+        <v>0.3147</v>
       </c>
       <c r="C189">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D189">
-        <v>0.2371</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3178</v>
+        <v>0.3183</v>
       </c>
       <c r="C190">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D190">
-        <v>0.2406</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3218</v>
+        <v>0.3222</v>
       </c>
       <c r="C191">
         <v>0.0772</v>
       </c>
       <c r="D191">
-        <v>0.2446</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3263</v>
+        <v>0.3268</v>
       </c>
       <c r="C192">
-        <v>0.0771</v>
+        <v>0.0772</v>
       </c>
       <c r="D192">
-        <v>0.2492</v>
+        <v>0.2496</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.3315</v>
+        <v>0.332</v>
       </c>
       <c r="C193">
-        <v>0.0775</v>
+        <v>0.0776</v>
       </c>
       <c r="D193">
-        <v>0.254</v>
+        <v>0.2543</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3354</v>
+        <v>0.3359</v>
       </c>
       <c r="C194">
-        <v>0.0769</v>
+        <v>0.077</v>
       </c>
       <c r="D194">
-        <v>0.2585</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,13 +3866,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.339</v>
+        <v>0.3394</v>
       </c>
       <c r="C195">
         <v>0.0762</v>
       </c>
       <c r="D195">
-        <v>0.2628</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3418</v>
+        <v>0.3422</v>
       </c>
       <c r="C196">
-        <v>0.07480000000000001</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="D196">
-        <v>0.2669</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.3445</v>
+        <v>0.345</v>
       </c>
       <c r="C197">
         <v>0.0736</v>
       </c>
       <c r="D197">
-        <v>0.2709</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3482</v>
+        <v>0.3487</v>
       </c>
       <c r="C198">
         <v>0.0725</v>
       </c>
       <c r="D198">
-        <v>0.2757</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3513</v>
+        <v>0.3518</v>
       </c>
       <c r="C199">
-        <v>0.0713</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="D199">
-        <v>0.28</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3552</v>
+        <v>0.3557</v>
       </c>
       <c r="C200">
-        <v>0.0709</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D200">
-        <v>0.2844</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.3585</v>
+        <v>0.359</v>
       </c>
       <c r="C201">
-        <v>0.0699</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D201">
-        <v>0.2887</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3616</v>
+        <v>0.3621</v>
       </c>
       <c r="C202">
-        <v>0.0688</v>
+        <v>0.0689</v>
       </c>
       <c r="D202">
-        <v>0.2928</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3639</v>
+        <v>0.3644</v>
       </c>
       <c r="C203">
-        <v>0.0673</v>
+        <v>0.0674</v>
       </c>
       <c r="D203">
-        <v>0.2966</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3666</v>
+        <v>0.3671</v>
       </c>
       <c r="C204">
-        <v>0.0663</v>
+        <v>0.0664</v>
       </c>
       <c r="D204">
-        <v>0.3003</v>
+        <v>0.3007</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3694</v>
+        <v>0.3699</v>
       </c>
       <c r="C205">
-        <v>0.0654</v>
+        <v>0.0655</v>
       </c>
       <c r="D205">
-        <v>0.3039</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3717</v>
+        <v>0.3722</v>
       </c>
       <c r="C206">
-        <v>0.0645</v>
+        <v>0.0646</v>
       </c>
       <c r="D206">
-        <v>0.3072</v>
+        <v>0.3076</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3734</v>
+        <v>0.3739</v>
       </c>
       <c r="C207">
-        <v>0.0636</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D207">
-        <v>0.3098</v>
+        <v>0.3102</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3757</v>
+        <v>0.3762</v>
       </c>
       <c r="C208">
-        <v>0.0635</v>
+        <v>0.0636</v>
       </c>
       <c r="D208">
-        <v>0.3122</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3778</v>
+        <v>0.3783</v>
       </c>
       <c r="C209">
         <v>0.0635</v>
       </c>
       <c r="D209">
-        <v>0.3144</v>
+        <v>0.3147</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3799</v>
+        <v>0.3804</v>
       </c>
       <c r="C210">
-        <v>0.0638</v>
+        <v>0.0639</v>
       </c>
       <c r="D210">
-        <v>0.3162</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3811</v>
+        <v>0.3815</v>
       </c>
       <c r="C211">
-        <v>0.0636</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D211">
-        <v>0.3175</v>
+        <v>0.3179</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3814</v>
+        <v>0.3819</v>
       </c>
       <c r="C212">
         <v>0.0633</v>
       </c>
       <c r="D212">
-        <v>0.3182</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3809</v>
+        <v>0.3813</v>
       </c>
       <c r="C213">
-        <v>0.0626</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D213">
-        <v>0.3182</v>
+        <v>0.3186</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3806</v>
+        <v>0.3811</v>
       </c>
       <c r="C214">
-        <v>0.0626</v>
+        <v>0.06270000000000001</v>
       </c>
       <c r="D214">
-        <v>0.318</v>
+        <v>0.3184</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3805</v>
+        <v>0.3809</v>
       </c>
       <c r="C215">
-        <v>0.0629</v>
+        <v>0.063</v>
       </c>
       <c r="D215">
-        <v>0.3176</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3798</v>
+        <v>0.3802</v>
       </c>
       <c r="C216">
-        <v>0.06320000000000001</v>
+        <v>0.0633</v>
       </c>
       <c r="D216">
-        <v>0.3166</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3788</v>
+        <v>0.3792</v>
       </c>
       <c r="C217">
         <v>0.0638</v>
       </c>
       <c r="D217">
-        <v>0.3151</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3765</v>
+        <v>0.3769</v>
       </c>
       <c r="C218">
-        <v>0.06419999999999999</v>
+        <v>0.0643</v>
       </c>
       <c r="D218">
-        <v>0.3122</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3771</v>
+        <v>0.3775</v>
       </c>
       <c r="C219">
-        <v>0.0648</v>
+        <v>0.0649</v>
       </c>
       <c r="D219">
-        <v>0.3123</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3779</v>
+        <v>0.3783</v>
       </c>
       <c r="C220">
         <v>0.0654</v>
       </c>
       <c r="D220">
-        <v>0.3126</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3811</v>
+        <v>0.3814</v>
       </c>
       <c r="C221">
         <v>0.0664</v>
       </c>
       <c r="D221">
-        <v>0.3146</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3851</v>
+        <v>0.3855</v>
       </c>
       <c r="C222">
         <v>0.0677</v>
       </c>
       <c r="D222">
-        <v>0.3174</v>
+        <v>0.3178</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3885</v>
+        <v>0.3888</v>
       </c>
       <c r="C223">
         <v>0.06900000000000001</v>
       </c>
       <c r="D223">
-        <v>0.3195</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.3906</v>
+        <v>0.391</v>
       </c>
       <c r="C224">
         <v>0.0698</v>
       </c>
       <c r="D224">
-        <v>0.3208</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3924</v>
+        <v>0.3927</v>
       </c>
       <c r="C225">
         <v>0.0709</v>
       </c>
       <c r="D225">
-        <v>0.3215</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3938</v>
+        <v>0.3941</v>
       </c>
       <c r="C226">
         <v>0.0722</v>
       </c>
       <c r="D226">
-        <v>0.3216</v>
+        <v>0.3219</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3948</v>
+        <v>0.3951</v>
       </c>
       <c r="C227">
         <v>0.0733</v>
       </c>
       <c r="D227">
-        <v>0.3214</v>
+        <v>0.3218</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.3947</v>
+        <v>0.395</v>
       </c>
       <c r="C228">
         <v>0.0736</v>
       </c>
       <c r="D228">
-        <v>0.321</v>
+        <v>0.3213</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3945</v>
+        <v>0.3948</v>
       </c>
       <c r="C229">
         <v>0.074</v>
       </c>
       <c r="D229">
-        <v>0.3205</v>
+        <v>0.3208</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3941</v>
+        <v>0.3943</v>
       </c>
       <c r="C230">
         <v>0.0741</v>
       </c>
       <c r="D230">
-        <v>0.32</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3941</v>
+        <v>0.3944</v>
       </c>
       <c r="C231">
         <v>0.0746</v>
       </c>
       <c r="D231">
-        <v>0.3195</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3942</v>
+        <v>0.3945</v>
       </c>
       <c r="C232">
         <v>0.0751</v>
       </c>
       <c r="D232">
-        <v>0.3191</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3946</v>
+        <v>0.3948</v>
       </c>
       <c r="C233">
         <v>0.0756</v>
       </c>
       <c r="D233">
-        <v>0.319</v>
+        <v>0.3192</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.3952</v>
+        <v>0.3954</v>
       </c>
       <c r="C234">
         <v>0.07580000000000001</v>
       </c>
       <c r="D234">
-        <v>0.3194</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3957</v>
+        <v>0.3959</v>
       </c>
       <c r="C235">
         <v>0.0761</v>
       </c>
       <c r="D235">
-        <v>0.3197</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3967</v>
+        <v>0.3969</v>
       </c>
       <c r="C236">
-        <v>0.0762</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D236">
-        <v>0.3205</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3976</v>
+        <v>0.3978</v>
       </c>
       <c r="C237">
-        <v>0.07630000000000001</v>
+        <v>0.0764</v>
       </c>
       <c r="D237">
-        <v>0.3213</v>
+        <v>0.3215</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4468,13 +4468,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3984</v>
+        <v>0.3985</v>
       </c>
       <c r="C238">
         <v>0.0762</v>
       </c>
       <c r="D238">
-        <v>0.3222</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3957</v>
+        <v>0.3958</v>
       </c>
       <c r="C239">
         <v>0.07580000000000001</v>
       </c>
       <c r="D239">
-        <v>0.3199</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,7 +4496,7 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3922</v>
+        <v>0.3924</v>
       </c>
       <c r="C240">
         <v>0.07539999999999999</v>
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3865</v>
+        <v>0.3866</v>
       </c>
       <c r="C241">
-        <v>0.0746</v>
+        <v>0.0747</v>
       </c>
       <c r="D241">
-        <v>0.3118</v>
+        <v>0.3119</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,7 +4524,7 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3802</v>
+        <v>0.3804</v>
       </c>
       <c r="C242">
         <v>0.0742</v>
@@ -4538,7 +4538,7 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3757</v>
+        <v>0.3758</v>
       </c>
       <c r="C243">
         <v>0.07439999999999999</v>
@@ -4552,10 +4552,10 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3713</v>
+        <v>0.3714</v>
       </c>
       <c r="C244">
-        <v>0.0745</v>
+        <v>0.0746</v>
       </c>
       <c r="D244">
         <v>0.2968</v>
@@ -4566,7 +4566,7 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3672</v>
+        <v>0.3673</v>
       </c>
       <c r="C245">
         <v>0.0746</v>
@@ -4580,7 +4580,7 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.363</v>
+        <v>0.3631</v>
       </c>
       <c r="C246">
         <v>0.07439999999999999</v>
@@ -4594,7 +4594,7 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3592</v>
+        <v>0.3593</v>
       </c>
       <c r="C247">
         <v>0.07439999999999999</v>
@@ -4608,7 +4608,7 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3554</v>
+        <v>0.3555</v>
       </c>
       <c r="C248">
         <v>0.0745</v>
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3515</v>
+        <v>0.3516</v>
       </c>
       <c r="C249">
         <v>0.0743</v>
       </c>
       <c r="D249">
-        <v>0.2772</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.348</v>
+        <v>0.3481</v>
       </c>
       <c r="C250">
         <v>0.07439999999999999</v>
       </c>
       <c r="D250">
-        <v>0.2736</v>
+        <v>0.2737</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3444</v>
+        <v>0.3445</v>
       </c>
       <c r="C251">
         <v>0.0743</v>
       </c>
       <c r="D251">
-        <v>0.2701</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,10 +4664,10 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3408</v>
+        <v>0.3409</v>
       </c>
       <c r="C252">
-        <v>0.0741</v>
+        <v>0.0742</v>
       </c>
       <c r="D252">
         <v>0.2667</v>
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3379</v>
+        <v>0.3381</v>
       </c>
       <c r="C253">
         <v>0.0747</v>
       </c>
       <c r="D253">
-        <v>0.2633</v>
+        <v>0.2634</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2016 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2016 - Diaria.xlsx
@@ -1164,13 +1164,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.309</v>
+        <v>0.3081</v>
       </c>
       <c r="C2">
         <v>0.075</v>
       </c>
       <c r="D2">
-        <v>0.234</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3134</v>
+        <v>0.3124</v>
       </c>
       <c r="C3">
         <v>0.0764</v>
       </c>
       <c r="D3">
-        <v>0.2369</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3182</v>
+        <v>0.3173</v>
       </c>
       <c r="C4">
         <v>0.07770000000000001</v>
       </c>
       <c r="D4">
-        <v>0.2405</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3236</v>
+        <v>0.3227</v>
       </c>
       <c r="C5">
-        <v>0.0794</v>
+        <v>0.0793</v>
       </c>
       <c r="D5">
-        <v>0.2442</v>
+        <v>0.2433</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3298</v>
+        <v>0.3289</v>
       </c>
       <c r="C6">
-        <v>0.08169999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="D6">
-        <v>0.2481</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.3368</v>
+        <v>0.3359</v>
       </c>
       <c r="C7">
-        <v>0.08459999999999999</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D7">
-        <v>0.2522</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.3434</v>
+        <v>0.3424</v>
       </c>
       <c r="C8">
         <v>0.0871</v>
       </c>
       <c r="D8">
-        <v>0.2562</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3487</v>
+        <v>0.3477</v>
       </c>
       <c r="C9">
-        <v>0.08890000000000001</v>
+        <v>0.0888</v>
       </c>
       <c r="D9">
-        <v>0.2598</v>
+        <v>0.2589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.3533</v>
+        <v>0.3523</v>
       </c>
       <c r="C10">
-        <v>0.08989999999999999</v>
+        <v>0.0898</v>
       </c>
       <c r="D10">
-        <v>0.2634</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.3584</v>
+        <v>0.3575</v>
       </c>
       <c r="C11">
         <v>0.0914</v>
       </c>
       <c r="D11">
-        <v>0.2669</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.3644</v>
+        <v>0.3635</v>
       </c>
       <c r="C12">
-        <v>0.09370000000000001</v>
+        <v>0.0936</v>
       </c>
       <c r="D12">
-        <v>0.2707</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.3695</v>
+        <v>0.3686</v>
       </c>
       <c r="C13">
         <v>0.0951</v>
       </c>
       <c r="D13">
-        <v>0.2744</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.375</v>
+        <v>0.3741</v>
       </c>
       <c r="C14">
         <v>0.09669999999999999</v>
       </c>
       <c r="D14">
-        <v>0.2783</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.378</v>
+        <v>0.3771</v>
       </c>
       <c r="C15">
-        <v>0.0965</v>
+        <v>0.0964</v>
       </c>
       <c r="D15">
-        <v>0.2816</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.3809</v>
+        <v>0.38</v>
       </c>
       <c r="C16">
-        <v>0.0964</v>
+        <v>0.0963</v>
       </c>
       <c r="D16">
-        <v>0.2845</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.3841</v>
+        <v>0.3832</v>
       </c>
       <c r="C17">
-        <v>0.09660000000000001</v>
+        <v>0.0965</v>
       </c>
       <c r="D17">
-        <v>0.2875</v>
+        <v>0.2867</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.3864</v>
+        <v>0.3856</v>
       </c>
       <c r="C18">
         <v>0.096</v>
       </c>
       <c r="D18">
-        <v>0.2904</v>
+        <v>0.2896</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.388</v>
+        <v>0.3873</v>
       </c>
       <c r="C19">
         <v>0.0954</v>
       </c>
       <c r="D19">
-        <v>0.2927</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3892</v>
+        <v>0.3884</v>
       </c>
       <c r="C20">
         <v>0.0944</v>
       </c>
       <c r="D20">
-        <v>0.2948</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.3919</v>
+        <v>0.3911</v>
       </c>
       <c r="C21">
         <v>0.09429999999999999</v>
       </c>
       <c r="D21">
-        <v>0.2976</v>
+        <v>0.2969</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.3938</v>
+        <v>0.3931</v>
       </c>
       <c r="C22">
         <v>0.094</v>
       </c>
       <c r="D22">
-        <v>0.2998</v>
+        <v>0.2991</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.3942</v>
+        <v>0.3935</v>
       </c>
       <c r="C23">
-        <v>0.093</v>
+        <v>0.0929</v>
       </c>
       <c r="D23">
-        <v>0.3013</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.3942</v>
+        <v>0.3935</v>
       </c>
       <c r="C24">
         <v>0.0919</v>
       </c>
       <c r="D24">
-        <v>0.3023</v>
+        <v>0.3016</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.3935</v>
+        <v>0.3929</v>
       </c>
       <c r="C25">
         <v>0.0906</v>
       </c>
       <c r="D25">
-        <v>0.3029</v>
+        <v>0.3023</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.393</v>
+        <v>0.3924</v>
       </c>
       <c r="C26">
         <v>0.0896</v>
       </c>
       <c r="D26">
-        <v>0.3034</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.3916</v>
+        <v>0.391</v>
       </c>
       <c r="C27">
         <v>0.0881</v>
       </c>
       <c r="D27">
-        <v>0.3034</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.3908</v>
+        <v>0.3902</v>
       </c>
       <c r="C28">
         <v>0.08749999999999999</v>
       </c>
       <c r="D28">
-        <v>0.3033</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.3904</v>
+        <v>0.3899</v>
       </c>
       <c r="C29">
         <v>0.0871</v>
       </c>
       <c r="D29">
-        <v>0.3033</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.3911</v>
+        <v>0.3905</v>
       </c>
       <c r="C30">
         <v>0.0877</v>
       </c>
       <c r="D30">
-        <v>0.3033</v>
+        <v>0.3028</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.3902</v>
+        <v>0.3897</v>
       </c>
       <c r="C31">
         <v>0.0871</v>
       </c>
       <c r="D31">
-        <v>0.3031</v>
+        <v>0.3027</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.3891</v>
+        <v>0.3886</v>
       </c>
       <c r="C32">
         <v>0.0864</v>
       </c>
       <c r="D32">
-        <v>0.3027</v>
+        <v>0.3022</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.3878</v>
+        <v>0.3874</v>
       </c>
       <c r="C33">
         <v>0.0859</v>
       </c>
       <c r="D33">
-        <v>0.3019</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3862</v>
+        <v>0.3858</v>
       </c>
       <c r="C34">
         <v>0.0858</v>
       </c>
       <c r="D34">
-        <v>0.3004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.3853</v>
+        <v>0.3849</v>
       </c>
       <c r="C35">
         <v>0.0862</v>
       </c>
       <c r="D35">
-        <v>0.2991</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.3846</v>
+        <v>0.3842</v>
       </c>
       <c r="C36">
         <v>0.0866</v>
       </c>
       <c r="D36">
-        <v>0.2979</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.3833</v>
+        <v>0.3831</v>
       </c>
       <c r="C37">
-        <v>0.0868</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="D37">
-        <v>0.2965</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3836</v>
+        <v>0.3834</v>
       </c>
       <c r="C38">
         <v>0.0882</v>
       </c>
       <c r="D38">
-        <v>0.2955</v>
+        <v>0.2952</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.3846</v>
+        <v>0.3844</v>
       </c>
       <c r="C39">
         <v>0.0897</v>
       </c>
       <c r="D39">
-        <v>0.295</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.3857</v>
+        <v>0.3855</v>
       </c>
       <c r="C40">
         <v>0.0912</v>
       </c>
       <c r="D40">
-        <v>0.2944</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.3859</v>
+        <v>0.3857</v>
       </c>
       <c r="C41">
         <v>0.093</v>
       </c>
       <c r="D41">
-        <v>0.2929</v>
+        <v>0.2928</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.3867</v>
+        <v>0.3866</v>
       </c>
       <c r="C42">
         <v>0.0951</v>
       </c>
       <c r="D42">
-        <v>0.2916</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.3881</v>
+        <v>0.388</v>
       </c>
       <c r="C43">
         <v>0.0974</v>
       </c>
       <c r="D43">
-        <v>0.2908</v>
+        <v>0.2906</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.3885</v>
+        <v>0.3884</v>
       </c>
       <c r="C44">
         <v>0.0987</v>
       </c>
       <c r="D44">
-        <v>0.2898</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,13 +1766,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.3893</v>
+        <v>0.3891</v>
       </c>
       <c r="C45">
         <v>0.1002</v>
       </c>
       <c r="D45">
-        <v>0.289</v>
+        <v>0.2889</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,13 +1780,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3894</v>
+        <v>0.3893</v>
       </c>
       <c r="C46">
         <v>0.1011</v>
       </c>
       <c r="D46">
-        <v>0.2884</v>
+        <v>0.2882</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1794,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.3896</v>
+        <v>0.3894</v>
       </c>
       <c r="C47">
-        <v>0.1017</v>
+        <v>0.1018</v>
       </c>
       <c r="D47">
-        <v>0.2878</v>
+        <v>0.2877</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.3888</v>
+        <v>0.3887</v>
       </c>
       <c r="C48">
         <v>0.1015</v>
       </c>
       <c r="D48">
-        <v>0.2874</v>
+        <v>0.2872</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1822,13 +1822,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.3881</v>
+        <v>0.3879</v>
       </c>
       <c r="C49">
-        <v>0.1014</v>
+        <v>0.1015</v>
       </c>
       <c r="D49">
-        <v>0.2867</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1836,13 +1836,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.3868</v>
+        <v>0.3866</v>
       </c>
       <c r="C50">
-        <v>0.1009</v>
+        <v>0.101</v>
       </c>
       <c r="D50">
-        <v>0.2859</v>
+        <v>0.2857</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1850,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.3873</v>
+        <v>0.3871</v>
       </c>
       <c r="C51">
-        <v>0.1021</v>
+        <v>0.1022</v>
       </c>
       <c r="D51">
-        <v>0.2852</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.3868</v>
+        <v>0.3866</v>
       </c>
       <c r="C52">
         <v>0.1025</v>
       </c>
       <c r="D52">
-        <v>0.2843</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1878,13 +1878,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.3869</v>
+        <v>0.3866</v>
       </c>
       <c r="C53">
-        <v>0.1029</v>
+        <v>0.103</v>
       </c>
       <c r="D53">
-        <v>0.284</v>
+        <v>0.2837</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1892,13 +1892,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.3869</v>
+        <v>0.3866</v>
       </c>
       <c r="C54">
         <v>0.103</v>
       </c>
       <c r="D54">
-        <v>0.284</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1906,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.3872</v>
+        <v>0.3868</v>
       </c>
       <c r="C55">
-        <v>0.103</v>
+        <v>0.1031</v>
       </c>
       <c r="D55">
-        <v>0.2842</v>
+        <v>0.2838</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,13 +1920,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.3892</v>
+        <v>0.3888</v>
       </c>
       <c r="C56">
         <v>0.1049</v>
       </c>
       <c r="D56">
-        <v>0.2844</v>
+        <v>0.2839</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,13 +1934,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3915</v>
+        <v>0.3911</v>
       </c>
       <c r="C57">
-        <v>0.1068</v>
+        <v>0.1069</v>
       </c>
       <c r="D57">
-        <v>0.2847</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1948,13 +1948,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3922</v>
+        <v>0.3917</v>
       </c>
       <c r="C58">
         <v>0.1077</v>
       </c>
       <c r="D58">
-        <v>0.2845</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1962,13 +1962,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3923</v>
+        <v>0.3918</v>
       </c>
       <c r="C59">
-        <v>0.1083</v>
+        <v>0.1084</v>
       </c>
       <c r="D59">
-        <v>0.284</v>
+        <v>0.2834</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3917</v>
+        <v>0.3912</v>
       </c>
       <c r="C60">
         <v>0.1087</v>
       </c>
       <c r="D60">
-        <v>0.283</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3902</v>
+        <v>0.3897</v>
       </c>
       <c r="C61">
         <v>0.1086</v>
       </c>
       <c r="D61">
-        <v>0.2816</v>
+        <v>0.2811</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3885</v>
+        <v>0.3879</v>
       </c>
       <c r="C62">
         <v>0.1083</v>
       </c>
       <c r="D62">
-        <v>0.2802</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3863</v>
+        <v>0.3857</v>
       </c>
       <c r="C63">
         <v>0.1076</v>
       </c>
       <c r="D63">
-        <v>0.2788</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2032,13 +2032,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3851</v>
+        <v>0.3845</v>
       </c>
       <c r="C64">
-        <v>0.1077</v>
+        <v>0.1078</v>
       </c>
       <c r="D64">
-        <v>0.2774</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2046,13 +2046,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3834</v>
+        <v>0.3828</v>
       </c>
       <c r="C65">
-        <v>0.1076</v>
+        <v>0.1077</v>
       </c>
       <c r="D65">
-        <v>0.2758</v>
+        <v>0.2751</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2060,13 +2060,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3809</v>
+        <v>0.3803</v>
       </c>
       <c r="C66">
-        <v>0.1069</v>
+        <v>0.107</v>
       </c>
       <c r="D66">
-        <v>0.274</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2074,13 +2074,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3779</v>
+        <v>0.3773</v>
       </c>
       <c r="C67">
         <v>0.1058</v>
       </c>
       <c r="D67">
-        <v>0.2721</v>
+        <v>0.2715</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2088,13 +2088,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3747</v>
+        <v>0.3741</v>
       </c>
       <c r="C68">
         <v>0.1046</v>
       </c>
       <c r="D68">
-        <v>0.2702</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2102,13 +2102,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.3716</v>
+        <v>0.371</v>
       </c>
       <c r="C69">
         <v>0.103</v>
       </c>
       <c r="D69">
-        <v>0.2686</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2116,13 +2116,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.369</v>
+        <v>0.3684</v>
       </c>
       <c r="C70">
-        <v>0.1016</v>
+        <v>0.1017</v>
       </c>
       <c r="D70">
-        <v>0.2674</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2130,13 +2130,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3658</v>
+        <v>0.3652</v>
       </c>
       <c r="C71">
         <v>0.0994</v>
       </c>
       <c r="D71">
-        <v>0.2664</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3636</v>
+        <v>0.3631</v>
       </c>
       <c r="C72">
-        <v>0.0978</v>
+        <v>0.0979</v>
       </c>
       <c r="D72">
-        <v>0.2658</v>
+        <v>0.2652</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2158,13 +2158,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3621</v>
+        <v>0.3616</v>
       </c>
       <c r="C73">
-        <v>0.0969</v>
+        <v>0.097</v>
       </c>
       <c r="D73">
-        <v>0.2652</v>
+        <v>0.2646</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2172,13 +2172,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3605</v>
+        <v>0.36</v>
       </c>
       <c r="C74">
-        <v>0.0958</v>
+        <v>0.0959</v>
       </c>
       <c r="D74">
-        <v>0.2647</v>
+        <v>0.2641</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2186,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3584</v>
+        <v>0.3579</v>
       </c>
       <c r="C75">
-        <v>0.0946</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="D75">
-        <v>0.2638</v>
+        <v>0.2632</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2200,13 +2200,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3545</v>
+        <v>0.3541</v>
       </c>
       <c r="C76">
-        <v>0.0916</v>
+        <v>0.0917</v>
       </c>
       <c r="D76">
-        <v>0.2629</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2214,13 +2214,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3504</v>
+        <v>0.35</v>
       </c>
       <c r="C77">
-        <v>0.0886</v>
+        <v>0.0887</v>
       </c>
       <c r="D77">
-        <v>0.2619</v>
+        <v>0.2614</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2228,13 +2228,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3465</v>
+        <v>0.3461</v>
       </c>
       <c r="C78">
-        <v>0.0858</v>
+        <v>0.0859</v>
       </c>
       <c r="D78">
-        <v>0.2606</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2242,13 +2242,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.3424</v>
+        <v>0.3421</v>
       </c>
       <c r="C79">
-        <v>0.0828</v>
+        <v>0.0829</v>
       </c>
       <c r="D79">
-        <v>0.2596</v>
+        <v>0.2592</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2256,13 +2256,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.3389</v>
+        <v>0.3386</v>
       </c>
       <c r="C80">
-        <v>0.0799</v>
+        <v>0.08</v>
       </c>
       <c r="D80">
-        <v>0.259</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2270,13 +2270,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.3358</v>
+        <v>0.3355</v>
       </c>
       <c r="C81">
-        <v>0.07679999999999999</v>
+        <v>0.0769</v>
       </c>
       <c r="D81">
-        <v>0.259</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.3326</v>
+        <v>0.3323</v>
       </c>
       <c r="C82">
-        <v>0.0737</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="D82">
-        <v>0.2588</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2298,13 +2298,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.3298</v>
+        <v>0.3296</v>
       </c>
       <c r="C83">
-        <v>0.0711</v>
+        <v>0.0713</v>
       </c>
       <c r="D83">
-        <v>0.2587</v>
+        <v>0.2583</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2312,13 +2312,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.3265</v>
+        <v>0.3263</v>
       </c>
       <c r="C84">
-        <v>0.06809999999999999</v>
+        <v>0.0683</v>
       </c>
       <c r="D84">
-        <v>0.2584</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2326,13 +2326,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.3243</v>
+        <v>0.3241</v>
       </c>
       <c r="C85">
-        <v>0.066</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="D85">
-        <v>0.2583</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.3221</v>
+        <v>0.3219</v>
       </c>
       <c r="C86">
-        <v>0.064</v>
+        <v>0.0641</v>
       </c>
       <c r="D86">
-        <v>0.2581</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2354,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.3202</v>
+        <v>0.3201</v>
       </c>
       <c r="C87">
-        <v>0.0624</v>
+        <v>0.0625</v>
       </c>
       <c r="D87">
-        <v>0.2578</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2368,13 +2368,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.3184</v>
+        <v>0.3182</v>
       </c>
       <c r="C88">
-        <v>0.0611</v>
+        <v>0.0612</v>
       </c>
       <c r="D88">
-        <v>0.2573</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2382,13 +2382,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.3163</v>
+        <v>0.3161</v>
       </c>
       <c r="C89">
-        <v>0.0603</v>
+        <v>0.0604</v>
       </c>
       <c r="D89">
-        <v>0.256</v>
+        <v>0.2557</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.3127</v>
+        <v>0.3125</v>
       </c>
       <c r="C90">
-        <v>0.059</v>
+        <v>0.0591</v>
       </c>
       <c r="D90">
-        <v>0.2537</v>
+        <v>0.2534</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2410,13 +2410,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.3089</v>
+        <v>0.3087</v>
       </c>
       <c r="C91">
-        <v>0.058</v>
+        <v>0.0582</v>
       </c>
       <c r="D91">
-        <v>0.2508</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2424,13 +2424,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.3048</v>
+        <v>0.3046</v>
       </c>
       <c r="C92">
-        <v>0.0574</v>
+        <v>0.0575</v>
       </c>
       <c r="D92">
-        <v>0.2474</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2438,13 +2438,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2998</v>
+        <v>0.2995</v>
       </c>
       <c r="C93">
-        <v>0.0563</v>
+        <v>0.0564</v>
       </c>
       <c r="D93">
-        <v>0.2435</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2452,13 +2452,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2952</v>
+        <v>0.2949</v>
       </c>
       <c r="C94">
-        <v>0.056</v>
+        <v>0.0561</v>
       </c>
       <c r="D94">
-        <v>0.2392</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2466,13 +2466,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2906</v>
+        <v>0.2903</v>
       </c>
       <c r="C95">
-        <v>0.0557</v>
+        <v>0.0558</v>
       </c>
       <c r="D95">
-        <v>0.2349</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2480,13 +2480,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2863</v>
+        <v>0.2859</v>
       </c>
       <c r="C96">
-        <v>0.0555</v>
+        <v>0.0556</v>
       </c>
       <c r="D96">
-        <v>0.2307</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2494,13 +2494,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2815</v>
+        <v>0.2811</v>
       </c>
       <c r="C97">
         <v>0.0552</v>
       </c>
       <c r="D97">
-        <v>0.2264</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2508,13 +2508,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2772</v>
+        <v>0.2767</v>
       </c>
       <c r="C98">
-        <v>0.0552</v>
+        <v>0.0553</v>
       </c>
       <c r="D98">
-        <v>0.222</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2522,13 +2522,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2728</v>
+        <v>0.2722</v>
       </c>
       <c r="C99">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="D99">
-        <v>0.2171</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2536,13 +2536,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2685</v>
+        <v>0.2679</v>
       </c>
       <c r="C100">
-        <v>0.0566</v>
+        <v>0.0567</v>
       </c>
       <c r="D100">
-        <v>0.2119</v>
+        <v>0.2112</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2550,13 +2550,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2641</v>
+        <v>0.2635</v>
       </c>
       <c r="C101">
-        <v>0.0579</v>
+        <v>0.058</v>
       </c>
       <c r="D101">
-        <v>0.2062</v>
+        <v>0.2055</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2564,13 +2564,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2598</v>
+        <v>0.2591</v>
       </c>
       <c r="C102">
         <v>0.0592</v>
       </c>
       <c r="D102">
-        <v>0.2006</v>
+        <v>0.1998</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2578,13 +2578,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2546</v>
+        <v>0.2538</v>
       </c>
       <c r="C103">
         <v>0.0598</v>
       </c>
       <c r="D103">
-        <v>0.1948</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,13 +2592,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2498</v>
+        <v>0.249</v>
       </c>
       <c r="C104">
         <v>0.0607</v>
       </c>
       <c r="D104">
-        <v>0.1891</v>
+        <v>0.1883</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2606,13 +2606,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2449</v>
+        <v>0.244</v>
       </c>
       <c r="C105">
         <v>0.0612</v>
       </c>
       <c r="D105">
-        <v>0.1837</v>
+        <v>0.1827</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2620,13 +2620,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2403</v>
+        <v>0.2393</v>
       </c>
       <c r="C106">
-        <v>0.0616</v>
+        <v>0.0617</v>
       </c>
       <c r="D106">
-        <v>0.1786</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2634,13 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.237</v>
+        <v>0.236</v>
       </c>
       <c r="C107">
         <v>0.06270000000000001</v>
       </c>
       <c r="D107">
-        <v>0.1743</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2648,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2345</v>
+        <v>0.2333</v>
       </c>
       <c r="C108">
         <v>0.0638</v>
       </c>
       <c r="D108">
-        <v>0.1707</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2662,13 +2662,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2327</v>
+        <v>0.2315</v>
       </c>
       <c r="C109">
         <v>0.06469999999999999</v>
       </c>
       <c r="D109">
-        <v>0.168</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2676,13 +2676,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2326</v>
+        <v>0.2314</v>
       </c>
       <c r="C110">
         <v>0.0659</v>
       </c>
       <c r="D110">
-        <v>0.1667</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2335</v>
+        <v>0.2322</v>
       </c>
       <c r="C111">
         <v>0.0672</v>
       </c>
       <c r="D111">
-        <v>0.1663</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,13 +2704,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2339</v>
+        <v>0.2325</v>
       </c>
       <c r="C112">
         <v>0.06759999999999999</v>
       </c>
       <c r="D112">
-        <v>0.1663</v>
+        <v>0.1649</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2345</v>
+        <v>0.2331</v>
       </c>
       <c r="C113">
         <v>0.0679</v>
       </c>
       <c r="D113">
-        <v>0.1666</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.235</v>
+        <v>0.2336</v>
       </c>
       <c r="C114">
         <v>0.068</v>
       </c>
       <c r="D114">
-        <v>0.167</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,13 +2746,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.236</v>
+        <v>0.2346</v>
       </c>
       <c r="C115">
         <v>0.06859999999999999</v>
       </c>
       <c r="D115">
-        <v>0.1674</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,13 +2760,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2364</v>
+        <v>0.2349</v>
       </c>
       <c r="C116">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D116">
-        <v>0.1674</v>
+        <v>0.1659</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2774,13 +2774,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2367</v>
+        <v>0.2352</v>
       </c>
       <c r="C117">
         <v>0.0694</v>
       </c>
       <c r="D117">
-        <v>0.1673</v>
+        <v>0.1658</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2788,13 +2788,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2369</v>
+        <v>0.2354</v>
       </c>
       <c r="C118">
         <v>0.0698</v>
       </c>
       <c r="D118">
-        <v>0.1671</v>
+        <v>0.1656</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2802,13 +2802,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2369</v>
+        <v>0.2354</v>
       </c>
       <c r="C119">
         <v>0.0699</v>
       </c>
       <c r="D119">
-        <v>0.167</v>
+        <v>0.1655</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2816,13 +2816,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2364</v>
+        <v>0.2349</v>
       </c>
       <c r="C120">
         <v>0.0696</v>
       </c>
       <c r="D120">
-        <v>0.1668</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2830,13 +2830,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.236</v>
+        <v>0.2344</v>
       </c>
       <c r="C121">
         <v>0.0693</v>
       </c>
       <c r="D121">
-        <v>0.1666</v>
+        <v>0.1651</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2844,13 +2844,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2358</v>
+        <v>0.2342</v>
       </c>
       <c r="C122">
         <v>0.06950000000000001</v>
       </c>
       <c r="D122">
-        <v>0.1663</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,13 +2858,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2356</v>
+        <v>0.234</v>
       </c>
       <c r="C123">
         <v>0.0698</v>
       </c>
       <c r="D123">
-        <v>0.1658</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2872,13 +2872,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2345</v>
+        <v>0.2328</v>
       </c>
       <c r="C124">
-        <v>0.0698</v>
+        <v>0.0697</v>
       </c>
       <c r="D124">
-        <v>0.1647</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2886,13 +2886,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2332</v>
+        <v>0.2315</v>
       </c>
       <c r="C125">
         <v>0.0696</v>
       </c>
       <c r="D125">
-        <v>0.1636</v>
+        <v>0.1619</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2900,13 +2900,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2331</v>
+        <v>0.2315</v>
       </c>
       <c r="C126">
         <v>0.07049999999999999</v>
       </c>
       <c r="D126">
-        <v>0.1626</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,13 +2914,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2329</v>
+        <v>0.2312</v>
       </c>
       <c r="C127">
-        <v>0.0716</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D127">
-        <v>0.1613</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.2323</v>
+        <v>0.2306</v>
       </c>
       <c r="C128">
-        <v>0.07240000000000001</v>
+        <v>0.0723</v>
       </c>
       <c r="D128">
-        <v>0.16</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,13 +2942,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.231</v>
+        <v>0.2293</v>
       </c>
       <c r="C129">
         <v>0.07290000000000001</v>
       </c>
       <c r="D129">
-        <v>0.1581</v>
+        <v>0.1564</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2956,13 +2956,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.2284</v>
+        <v>0.2266</v>
       </c>
       <c r="C130">
         <v>0.073</v>
       </c>
       <c r="D130">
-        <v>0.1554</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2970,13 +2970,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.2247</v>
+        <v>0.223</v>
       </c>
       <c r="C131">
-        <v>0.0727</v>
+        <v>0.0726</v>
       </c>
       <c r="D131">
-        <v>0.152</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.2208</v>
+        <v>0.219</v>
       </c>
       <c r="C132">
-        <v>0.07240000000000001</v>
+        <v>0.0723</v>
       </c>
       <c r="D132">
-        <v>0.1484</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.2168</v>
+        <v>0.2151</v>
       </c>
       <c r="C133">
-        <v>0.0725</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="D133">
-        <v>0.1444</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3012,13 +3012,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.2126</v>
+        <v>0.2109</v>
       </c>
       <c r="C134">
-        <v>0.0723</v>
+        <v>0.0722</v>
       </c>
       <c r="D134">
-        <v>0.1403</v>
+        <v>0.1386</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.2081</v>
+        <v>0.2063</v>
       </c>
       <c r="C135">
-        <v>0.07199999999999999</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="D135">
-        <v>0.1361</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.2039</v>
+        <v>0.2021</v>
       </c>
       <c r="C136">
-        <v>0.0716</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D136">
-        <v>0.1323</v>
+        <v>0.1306</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3054,13 +3054,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1996</v>
+        <v>0.1979</v>
       </c>
       <c r="C137">
-        <v>0.0712</v>
+        <v>0.0711</v>
       </c>
       <c r="D137">
-        <v>0.1285</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3068,13 +3068,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1951</v>
+        <v>0.1933</v>
       </c>
       <c r="C138">
-        <v>0.0704</v>
+        <v>0.0703</v>
       </c>
       <c r="D138">
-        <v>0.1247</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3082,13 +3082,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1908</v>
+        <v>0.1891</v>
       </c>
       <c r="C139">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
       <c r="D139">
-        <v>0.121</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3096,13 +3096,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.186</v>
+        <v>0.1843</v>
       </c>
       <c r="C140">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D140">
-        <v>0.1171</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3110,13 +3110,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1811</v>
+        <v>0.1794</v>
       </c>
       <c r="C141">
-        <v>0.0679</v>
+        <v>0.0678</v>
       </c>
       <c r="D141">
-        <v>0.1132</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3124,13 +3124,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1758</v>
+        <v>0.174</v>
       </c>
       <c r="C142">
-        <v>0.0665</v>
+        <v>0.0664</v>
       </c>
       <c r="D142">
-        <v>0.1093</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3138,13 +3138,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.171</v>
+        <v>0.1693</v>
       </c>
       <c r="C143">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="D143">
-        <v>0.1056</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3152,13 +3152,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.167</v>
+        <v>0.1652</v>
       </c>
       <c r="C144">
-        <v>0.0646</v>
+        <v>0.0645</v>
       </c>
       <c r="D144">
-        <v>0.1024</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3166,13 +3166,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1622</v>
+        <v>0.1604</v>
       </c>
       <c r="C145">
-        <v>0.06320000000000001</v>
+        <v>0.0631</v>
       </c>
       <c r="D145">
-        <v>0.099</v>
+        <v>0.0974</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3180,13 +3180,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1571</v>
+        <v>0.1554</v>
       </c>
       <c r="C146">
-        <v>0.0613</v>
+        <v>0.0612</v>
       </c>
       <c r="D146">
-        <v>0.0958</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1521</v>
+        <v>0.1504</v>
       </c>
       <c r="C147">
-        <v>0.0592</v>
+        <v>0.0591</v>
       </c>
       <c r="D147">
-        <v>0.0929</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3208,13 +3208,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1478</v>
+        <v>0.1461</v>
       </c>
       <c r="C148">
-        <v>0.0575</v>
+        <v>0.0574</v>
       </c>
       <c r="D148">
-        <v>0.09030000000000001</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1447</v>
+        <v>0.143</v>
       </c>
       <c r="C149">
-        <v>0.0562</v>
+        <v>0.0561</v>
       </c>
       <c r="D149">
-        <v>0.0885</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1434</v>
+        <v>0.1417</v>
       </c>
       <c r="C150">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D150">
-        <v>0.0878</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,13 +3250,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1437</v>
+        <v>0.142</v>
       </c>
       <c r="C151">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D151">
-        <v>0.0881</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3264,13 +3264,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1447</v>
+        <v>0.143</v>
       </c>
       <c r="C152">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D152">
-        <v>0.0891</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1469</v>
+        <v>0.1452</v>
       </c>
       <c r="C153">
-        <v>0.0558</v>
+        <v>0.0557</v>
       </c>
       <c r="D153">
-        <v>0.0911</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,13 +3292,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1498</v>
+        <v>0.1481</v>
       </c>
       <c r="C154">
         <v>0.0556</v>
       </c>
       <c r="D154">
-        <v>0.0941</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1529</v>
+        <v>0.1512</v>
       </c>
       <c r="C155">
-        <v>0.0551</v>
+        <v>0.055</v>
       </c>
       <c r="D155">
-        <v>0.0978</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1569</v>
+        <v>0.1552</v>
       </c>
       <c r="C156">
         <v>0.0547</v>
       </c>
       <c r="D156">
-        <v>0.1021</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,13 +3334,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1615</v>
+        <v>0.1598</v>
       </c>
       <c r="C157">
         <v>0.0541</v>
       </c>
       <c r="D157">
-        <v>0.1074</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1671</v>
+        <v>0.1654</v>
       </c>
       <c r="C158">
         <v>0.0537</v>
       </c>
       <c r="D158">
-        <v>0.1134</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1748</v>
+        <v>0.1731</v>
       </c>
       <c r="C159">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
       <c r="D159">
-        <v>0.1202</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3376,13 +3376,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1837</v>
+        <v>0.182</v>
       </c>
       <c r="C160">
         <v>0.0552</v>
       </c>
       <c r="D160">
-        <v>0.1285</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3390,13 +3390,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1931</v>
+        <v>0.1914</v>
       </c>
       <c r="C161">
         <v>0.0559</v>
       </c>
       <c r="D161">
-        <v>0.1372</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3404,13 +3404,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.2031</v>
+        <v>0.2015</v>
       </c>
       <c r="C162">
-        <v>0.057</v>
+        <v>0.0569</v>
       </c>
       <c r="D162">
-        <v>0.1462</v>
+        <v>0.1446</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3418,13 +3418,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.2134</v>
+        <v>0.2117</v>
       </c>
       <c r="C163">
-        <v>0.0581</v>
+        <v>0.058</v>
       </c>
       <c r="D163">
-        <v>0.1553</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3432,13 +3432,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.224</v>
+        <v>0.2223</v>
       </c>
       <c r="C164">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
       <c r="D164">
-        <v>0.1645</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3446,13 +3446,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.2349</v>
+        <v>0.2333</v>
       </c>
       <c r="C165">
         <v>0.0612</v>
       </c>
       <c r="D165">
-        <v>0.1737</v>
+        <v>0.1721</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.2447</v>
+        <v>0.2431</v>
       </c>
       <c r="C166">
-        <v>0.0626</v>
+        <v>0.0625</v>
       </c>
       <c r="D166">
-        <v>0.1822</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.2538</v>
+        <v>0.2522</v>
       </c>
       <c r="C167">
-        <v>0.0638</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D167">
-        <v>0.19</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.2624</v>
+        <v>0.2609</v>
       </c>
       <c r="C168">
-        <v>0.06519999999999999</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D168">
-        <v>0.1973</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,13 +3502,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.2697</v>
+        <v>0.2682</v>
       </c>
       <c r="C169">
         <v>0.06619999999999999</v>
       </c>
       <c r="D169">
-        <v>0.2035</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.2748</v>
+        <v>0.2733</v>
       </c>
       <c r="C170">
         <v>0.0664</v>
       </c>
       <c r="D170">
-        <v>0.2084</v>
+        <v>0.2069</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,13 +3530,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.2788</v>
+        <v>0.2773</v>
       </c>
       <c r="C171">
-        <v>0.0664</v>
+        <v>0.0663</v>
       </c>
       <c r="D171">
-        <v>0.2124</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,13 +3544,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.2821</v>
+        <v>0.2807</v>
       </c>
       <c r="C172">
         <v>0.0665</v>
       </c>
       <c r="D172">
-        <v>0.2156</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,13 +3558,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.2842</v>
+        <v>0.2828</v>
       </c>
       <c r="C173">
-        <v>0.06610000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="D173">
-        <v>0.2182</v>
+        <v>0.2168</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.2867</v>
+        <v>0.2853</v>
       </c>
       <c r="C174">
         <v>0.06660000000000001</v>
       </c>
       <c r="D174">
-        <v>0.2201</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.2895</v>
+        <v>0.2881</v>
       </c>
       <c r="C175">
-        <v>0.0677</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D175">
-        <v>0.2219</v>
+        <v>0.2205</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.2927</v>
+        <v>0.2913</v>
       </c>
       <c r="C176">
-        <v>0.0693</v>
+        <v>0.0692</v>
       </c>
       <c r="D176">
-        <v>0.2234</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,13 +3614,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2957</v>
+        <v>0.2943</v>
       </c>
       <c r="C177">
-        <v>0.07099999999999999</v>
+        <v>0.0709</v>
       </c>
       <c r="D177">
-        <v>0.2247</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2986</v>
+        <v>0.2972</v>
       </c>
       <c r="C178">
         <v>0.073</v>
       </c>
       <c r="D178">
-        <v>0.2256</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3642,13 +3642,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.3002</v>
+        <v>0.2987</v>
       </c>
       <c r="C179">
-        <v>0.0738</v>
+        <v>0.0737</v>
       </c>
       <c r="D179">
-        <v>0.2264</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3656,13 +3656,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.3008</v>
+        <v>0.2994</v>
       </c>
       <c r="C180">
-        <v>0.0747</v>
+        <v>0.0746</v>
       </c>
       <c r="D180">
-        <v>0.2261</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3670,13 +3670,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.3015</v>
+        <v>0.3001</v>
       </c>
       <c r="C181">
         <v>0.0757</v>
       </c>
       <c r="D181">
-        <v>0.2258</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,13 +3684,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.3022</v>
+        <v>0.3008</v>
       </c>
       <c r="C182">
         <v>0.0765</v>
       </c>
       <c r="D182">
-        <v>0.2257</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,13 +3698,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.3036</v>
+        <v>0.3021</v>
       </c>
       <c r="C183">
         <v>0.0775</v>
       </c>
       <c r="D183">
-        <v>0.226</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.3049</v>
+        <v>0.3035</v>
       </c>
       <c r="C184">
         <v>0.07820000000000001</v>
       </c>
       <c r="D184">
-        <v>0.2267</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.306</v>
+        <v>0.3046</v>
       </c>
       <c r="C185">
         <v>0.07820000000000001</v>
       </c>
       <c r="D185">
-        <v>0.2277</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,13 +3740,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.3077</v>
+        <v>0.3062</v>
       </c>
       <c r="C186">
         <v>0.07829999999999999</v>
       </c>
       <c r="D186">
-        <v>0.2293</v>
+        <v>0.2279</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3754,13 +3754,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.3101</v>
+        <v>0.3087</v>
       </c>
       <c r="C187">
-        <v>0.0784</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="D187">
-        <v>0.2317</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,13 +3768,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.3122</v>
+        <v>0.3108</v>
       </c>
       <c r="C188">
         <v>0.07779999999999999</v>
       </c>
       <c r="D188">
-        <v>0.2344</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.3147</v>
+        <v>0.3134</v>
       </c>
       <c r="C189">
         <v>0.07729999999999999</v>
       </c>
       <c r="D189">
-        <v>0.2375</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,13 +3796,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.3183</v>
+        <v>0.3169</v>
       </c>
       <c r="C190">
-        <v>0.07729999999999999</v>
+        <v>0.0772</v>
       </c>
       <c r="D190">
-        <v>0.241</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,13 +3810,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.3222</v>
+        <v>0.3208</v>
       </c>
       <c r="C191">
         <v>0.0772</v>
       </c>
       <c r="D191">
-        <v>0.245</v>
+        <v>0.2436</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,13 +3824,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.3268</v>
+        <v>0.3254</v>
       </c>
       <c r="C192">
         <v>0.0772</v>
       </c>
       <c r="D192">
-        <v>0.2496</v>
+        <v>0.2483</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,13 +3838,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.332</v>
+        <v>0.3306</v>
       </c>
       <c r="C193">
         <v>0.0776</v>
       </c>
       <c r="D193">
-        <v>0.2543</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,13 +3852,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.3359</v>
+        <v>0.3346</v>
       </c>
       <c r="C194">
         <v>0.077</v>
       </c>
       <c r="D194">
-        <v>0.2589</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,13 +3866,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.3394</v>
+        <v>0.3382</v>
       </c>
       <c r="C195">
-        <v>0.0762</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D195">
-        <v>0.2632</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,13 +3880,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.3422</v>
+        <v>0.341</v>
       </c>
       <c r="C196">
         <v>0.07489999999999999</v>
       </c>
       <c r="D196">
-        <v>0.2673</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3894,13 +3894,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.345</v>
+        <v>0.3437</v>
       </c>
       <c r="C197">
-        <v>0.0736</v>
+        <v>0.0737</v>
       </c>
       <c r="D197">
-        <v>0.2713</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3908,13 +3908,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.3487</v>
+        <v>0.3475</v>
       </c>
       <c r="C198">
-        <v>0.0725</v>
+        <v>0.0726</v>
       </c>
       <c r="D198">
-        <v>0.2761</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3922,13 +3922,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.3518</v>
+        <v>0.3506</v>
       </c>
       <c r="C199">
-        <v>0.07140000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="D199">
-        <v>0.2804</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,13 +3936,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.3557</v>
+        <v>0.3546</v>
       </c>
       <c r="C200">
         <v>0.07099999999999999</v>
       </c>
       <c r="D200">
-        <v>0.2848</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,13 +3950,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.359</v>
+        <v>0.3579</v>
       </c>
       <c r="C201">
         <v>0.07000000000000001</v>
       </c>
       <c r="D201">
-        <v>0.2891</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3964,13 +3964,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.3621</v>
+        <v>0.361</v>
       </c>
       <c r="C202">
         <v>0.0689</v>
       </c>
       <c r="D202">
-        <v>0.2932</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,13 +3978,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.3644</v>
+        <v>0.3633</v>
       </c>
       <c r="C203">
         <v>0.0674</v>
       </c>
       <c r="D203">
-        <v>0.297</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,13 +3992,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.3671</v>
+        <v>0.366</v>
       </c>
       <c r="C204">
         <v>0.0664</v>
       </c>
       <c r="D204">
-        <v>0.3007</v>
+        <v>0.2996</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4006,13 +4006,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.3699</v>
+        <v>0.3688</v>
       </c>
       <c r="C205">
-        <v>0.0655</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="D205">
-        <v>0.3043</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4020,13 +4020,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.3722</v>
+        <v>0.3712</v>
       </c>
       <c r="C206">
-        <v>0.0646</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="D206">
-        <v>0.3076</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,13 +4034,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.3739</v>
+        <v>0.3728</v>
       </c>
       <c r="C207">
-        <v>0.06370000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="D207">
-        <v>0.3102</v>
+        <v>0.3091</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,13 +4048,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.3762</v>
+        <v>0.3752</v>
       </c>
       <c r="C208">
-        <v>0.0636</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="D208">
-        <v>0.3126</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,13 +4062,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.3783</v>
+        <v>0.3772</v>
       </c>
       <c r="C209">
-        <v>0.0635</v>
+        <v>0.0636</v>
       </c>
       <c r="D209">
-        <v>0.3147</v>
+        <v>0.3136</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,13 +4076,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.3804</v>
+        <v>0.3793</v>
       </c>
       <c r="C210">
         <v>0.0639</v>
       </c>
       <c r="D210">
-        <v>0.3165</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4090,13 +4090,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.3815</v>
+        <v>0.3805</v>
       </c>
       <c r="C211">
         <v>0.06370000000000001</v>
       </c>
       <c r="D211">
-        <v>0.3179</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,13 +4104,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.3819</v>
+        <v>0.3808</v>
       </c>
       <c r="C212">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="D212">
-        <v>0.3185</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4118,13 +4118,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.3813</v>
+        <v>0.3802</v>
       </c>
       <c r="C213">
         <v>0.06270000000000001</v>
       </c>
       <c r="D213">
-        <v>0.3186</v>
+        <v>0.3175</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,13 +4132,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.3811</v>
+        <v>0.3799</v>
       </c>
       <c r="C214">
         <v>0.06270000000000001</v>
       </c>
       <c r="D214">
-        <v>0.3184</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4146,13 +4146,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.3809</v>
+        <v>0.3798</v>
       </c>
       <c r="C215">
         <v>0.063</v>
       </c>
       <c r="D215">
-        <v>0.318</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4160,13 +4160,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.3802</v>
+        <v>0.3791</v>
       </c>
       <c r="C216">
         <v>0.0633</v>
       </c>
       <c r="D216">
-        <v>0.317</v>
+        <v>0.3158</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4174,13 +4174,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.3792</v>
+        <v>0.3781</v>
       </c>
       <c r="C217">
         <v>0.0638</v>
       </c>
       <c r="D217">
-        <v>0.3154</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4188,13 +4188,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.3769</v>
+        <v>0.3757</v>
       </c>
       <c r="C218">
-        <v>0.0643</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="D218">
-        <v>0.3126</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4202,13 +4202,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.3775</v>
+        <v>0.3763</v>
       </c>
       <c r="C219">
-        <v>0.0649</v>
+        <v>0.0648</v>
       </c>
       <c r="D219">
-        <v>0.3126</v>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4216,13 +4216,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.3783</v>
+        <v>0.377</v>
       </c>
       <c r="C220">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="D220">
-        <v>0.3129</v>
+        <v>0.3117</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4230,13 +4230,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.3814</v>
+        <v>0.38</v>
       </c>
       <c r="C221">
         <v>0.0664</v>
       </c>
       <c r="D221">
-        <v>0.315</v>
+        <v>0.3137</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4244,13 +4244,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.3855</v>
+        <v>0.384</v>
       </c>
       <c r="C222">
-        <v>0.0677</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D222">
-        <v>0.3178</v>
+        <v>0.3164</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4258,13 +4258,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.3888</v>
+        <v>0.3874</v>
       </c>
       <c r="C223">
-        <v>0.06900000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="D223">
-        <v>0.3198</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4272,13 +4272,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.391</v>
+        <v>0.3895</v>
       </c>
       <c r="C224">
         <v>0.0698</v>
       </c>
       <c r="D224">
-        <v>0.3211</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4286,13 +4286,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.3927</v>
+        <v>0.3913</v>
       </c>
       <c r="C225">
-        <v>0.0709</v>
+        <v>0.0708</v>
       </c>
       <c r="D225">
-        <v>0.3218</v>
+        <v>0.3205</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4300,13 +4300,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.3941</v>
+        <v>0.3928</v>
       </c>
       <c r="C226">
-        <v>0.0722</v>
+        <v>0.0721</v>
       </c>
       <c r="D226">
-        <v>0.3219</v>
+        <v>0.3207</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4314,13 +4314,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.3951</v>
+        <v>0.3938</v>
       </c>
       <c r="C227">
-        <v>0.0733</v>
+        <v>0.0732</v>
       </c>
       <c r="D227">
-        <v>0.3218</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4328,13 +4328,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.395</v>
+        <v>0.3938</v>
       </c>
       <c r="C228">
         <v>0.0736</v>
       </c>
       <c r="D228">
-        <v>0.3213</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4342,13 +4342,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.3948</v>
+        <v>0.3937</v>
       </c>
       <c r="C229">
         <v>0.074</v>
       </c>
       <c r="D229">
-        <v>0.3208</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4356,13 +4356,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.3943</v>
+        <v>0.3933</v>
       </c>
       <c r="C230">
-        <v>0.0741</v>
+        <v>0.074</v>
       </c>
       <c r="D230">
-        <v>0.3202</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4370,13 +4370,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.3944</v>
+        <v>0.3935</v>
       </c>
       <c r="C231">
         <v>0.0746</v>
       </c>
       <c r="D231">
-        <v>0.3198</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4384,13 +4384,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.3945</v>
+        <v>0.3937</v>
       </c>
       <c r="C232">
         <v>0.0751</v>
       </c>
       <c r="D232">
-        <v>0.3194</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4398,13 +4398,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.3948</v>
+        <v>0.3942</v>
       </c>
       <c r="C233">
         <v>0.0756</v>
       </c>
       <c r="D233">
-        <v>0.3192</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4412,13 +4412,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.3954</v>
+        <v>0.3949</v>
       </c>
       <c r="C234">
         <v>0.07580000000000001</v>
       </c>
       <c r="D234">
-        <v>0.3195</v>
+        <v>0.3191</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4426,13 +4426,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.3959</v>
+        <v>0.3955</v>
       </c>
       <c r="C235">
         <v>0.0761</v>
       </c>
       <c r="D235">
-        <v>0.3198</v>
+        <v>0.3195</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4440,13 +4440,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.3969</v>
+        <v>0.3966</v>
       </c>
       <c r="C236">
         <v>0.07630000000000001</v>
       </c>
       <c r="D236">
-        <v>0.3206</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4454,13 +4454,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3978</v>
+        <v>0.3976</v>
       </c>
       <c r="C237">
-        <v>0.0764</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D237">
-        <v>0.3215</v>
+        <v>0.3213</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4482,13 +4482,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3958</v>
+        <v>0.3959</v>
       </c>
       <c r="C239">
         <v>0.07580000000000001</v>
       </c>
       <c r="D239">
-        <v>0.32</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4496,13 +4496,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3924</v>
+        <v>0.3926</v>
       </c>
       <c r="C240">
         <v>0.07539999999999999</v>
       </c>
       <c r="D240">
-        <v>0.3169</v>
+        <v>0.3172</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4510,13 +4510,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3866</v>
+        <v>0.387</v>
       </c>
       <c r="C241">
         <v>0.0747</v>
       </c>
       <c r="D241">
-        <v>0.3119</v>
+        <v>0.3123</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4524,13 +4524,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3804</v>
+        <v>0.3809</v>
       </c>
       <c r="C242">
-        <v>0.0742</v>
+        <v>0.0743</v>
       </c>
       <c r="D242">
-        <v>0.3061</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4538,13 +4538,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3758</v>
+        <v>0.3764</v>
       </c>
       <c r="C243">
-        <v>0.07439999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="D243">
-        <v>0.3013</v>
+        <v>0.3019</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4552,13 +4552,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3714</v>
+        <v>0.3721</v>
       </c>
       <c r="C244">
         <v>0.0746</v>
       </c>
       <c r="D244">
-        <v>0.2968</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4566,13 +4566,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3673</v>
+        <v>0.368</v>
       </c>
       <c r="C245">
-        <v>0.0746</v>
+        <v>0.0747</v>
       </c>
       <c r="D245">
-        <v>0.2926</v>
+        <v>0.2933</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4580,13 +4580,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3631</v>
+        <v>0.3638</v>
       </c>
       <c r="C246">
-        <v>0.07439999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="D246">
-        <v>0.2886</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4594,13 +4594,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3593</v>
+        <v>0.36</v>
       </c>
       <c r="C247">
-        <v>0.07439999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="D247">
-        <v>0.2848</v>
+        <v>0.2855</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4608,13 +4608,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3555</v>
+        <v>0.3562</v>
       </c>
       <c r="C248">
         <v>0.0745</v>
       </c>
       <c r="D248">
-        <v>0.281</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4622,13 +4622,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3516</v>
+        <v>0.3523</v>
       </c>
       <c r="C249">
-        <v>0.0743</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D249">
-        <v>0.2773</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4636,13 +4636,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3481</v>
+        <v>0.3488</v>
       </c>
       <c r="C250">
-        <v>0.07439999999999999</v>
+        <v>0.0745</v>
       </c>
       <c r="D250">
-        <v>0.2737</v>
+        <v>0.2743</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4650,13 +4650,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3445</v>
+        <v>0.3452</v>
       </c>
       <c r="C251">
-        <v>0.0743</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D251">
-        <v>0.2702</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4664,13 +4664,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3409</v>
+        <v>0.3415</v>
       </c>
       <c r="C252">
         <v>0.0742</v>
       </c>
       <c r="D252">
-        <v>0.2667</v>
+        <v>0.2673</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4678,13 +4678,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>0.3381</v>
+        <v>0.3386</v>
       </c>
       <c r="C253">
         <v>0.0747</v>
       </c>
       <c r="D253">
-        <v>0.2634</v>
+        <v>0.2639</v>
       </c>
     </row>
   </sheetData>
